--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="160">
   <si>
     <t>Feature</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>Add button</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>detail panel</t>
@@ -1328,7 +1325,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,7 +1380,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>168</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,13 +1468,16 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$47:$A$49</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>Date</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12/22/16</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>12/25/16</c:v>
                 </c:pt>
               </c:strCache>
@@ -1485,20 +1485,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$53</c:f>
+              <c:f>Progress!$E$48:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1616,8 +1610,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4358974358974358E-2"/>
-          <c:y val="6.8071312803889783E-2"/>
+          <c:x val="6.2637362637362637E-2"/>
+          <c:y val="0.37277147487844409"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1795,7 +1789,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7543859649122806E-2</c:v>
+                  <c:v>7.0588235294117646E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1985,7 +1979,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>168</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,16 +2251,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2641,10 +2635,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2657,7 +2651,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -2680,14 +2674,14 @@
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1">
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="B6" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>2</v>
@@ -2696,7 +2690,7 @@
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="B7" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>2</v>
@@ -2705,7 +2699,7 @@
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="B8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>14</v>
@@ -2714,7 +2708,7 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>14</v>
@@ -2723,7 +2717,7 @@
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="B10" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>14</v>
@@ -2737,7 +2731,7 @@
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="B12" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>14</v>
@@ -2746,7 +2740,7 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="B13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>14</v>
@@ -2774,7 +2768,7 @@
     </row>
     <row r="17" spans="2:4" s="6" customFormat="1">
       <c r="B17" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>14</v>
@@ -2783,7 +2777,7 @@
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
       <c r="B18" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>14</v>
@@ -2792,7 +2786,7 @@
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1">
       <c r="B19" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>14</v>
@@ -2820,13 +2814,13 @@
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
       <c r="B23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
@@ -2859,7 +2853,7 @@
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>14</v>
@@ -2868,7 +2862,7 @@
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>14</v>
@@ -2877,7 +2871,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
@@ -2886,7 +2880,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>14</v>
@@ -2895,7 +2889,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>14</v>
@@ -2904,7 +2898,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>14</v>
@@ -2913,7 +2907,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>14</v>
@@ -2931,7 +2925,7 @@
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
       <c r="B36" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>14</v>
@@ -2940,7 +2934,7 @@
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
       <c r="B37" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>14</v>
@@ -2949,7 +2943,7 @@
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
       <c r="B38" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>14</v>
@@ -2958,7 +2952,7 @@
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
       <c r="B39" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>14</v>
@@ -2967,7 +2961,7 @@
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
       <c r="B40" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>14</v>
@@ -2976,7 +2970,7 @@
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
       <c r="B41" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -2990,7 +2984,7 @@
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>14</v>
@@ -2999,7 +2993,7 @@
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
       <c r="B44" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
@@ -3008,7 +3002,7 @@
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
       <c r="B45" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>14</v>
@@ -3027,7 +3021,7 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>14</v>
@@ -3036,7 +3030,7 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>14</v>
@@ -3045,7 +3039,7 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>14</v>
@@ -3054,7 +3048,7 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
@@ -3063,7 +3057,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>14</v>
@@ -3072,7 +3066,7 @@
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>14</v>
@@ -3081,7 +3075,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>14</v>
@@ -3090,7 +3084,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -3099,7 +3093,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -3108,7 +3102,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -3122,7 +3116,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>14</v>
@@ -3131,7 +3125,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>14</v>
@@ -3140,7 +3134,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>14</v>
@@ -3154,7 +3148,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -3163,7 +3157,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
@@ -3172,7 +3166,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
@@ -3194,7 +3188,7 @@
         <v>24</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D68" s="4"/>
     </row>
@@ -3203,7 +3197,7 @@
         <v>30</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D69" s="4"/>
     </row>
@@ -3212,13 +3206,13 @@
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -3227,7 +3221,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="23" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -3236,16 +3230,16 @@
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
       <c r="B73" s="23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
       <c r="B74" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>14</v>
@@ -3254,7 +3248,7 @@
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -3263,7 +3257,7 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
       <c r="B76" s="23" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>14</v>
@@ -3272,7 +3266,7 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
@@ -3284,7 +3278,7 @@
         <v>40</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D78" s="4"/>
     </row>
@@ -3293,13 +3287,13 @@
         <v>20</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
@@ -3308,7 +3302,7 @@
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
       <c r="B81" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>14</v>
@@ -3317,7 +3311,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>14</v>
@@ -3326,7 +3320,7 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
@@ -3356,13 +3350,13 @@
         <v>16</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>14</v>
@@ -3371,7 +3365,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>14</v>
@@ -3380,7 +3374,7 @@
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
       <c r="B89" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>14</v>
@@ -3389,7 +3383,7 @@
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -3398,7 +3392,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3407,7 +3401,7 @@
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
       <c r="B92" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>14</v>
@@ -3457,7 +3451,7 @@
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
       <c r="B98" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
@@ -3466,7 +3460,7 @@
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
       <c r="B99" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>14</v>
@@ -3475,7 +3469,7 @@
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
       <c r="B100" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>14</v>
@@ -3484,7 +3478,7 @@
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
       <c r="B101" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>14</v>
@@ -3501,63 +3495,63 @@
         <v>27</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="22"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="2:4" s="6" customFormat="1">
+      <c r="B105" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="2:4" s="6" customFormat="1">
-      <c r="B105" s="22"/>
-      <c r="C105" s="7"/>
+      <c r="C105" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="2:4" s="6" customFormat="1">
+      <c r="B107" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="2:4" s="6" customFormat="1">
+      <c r="B108" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C106" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="23" t="s">
+      <c r="C108" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="2:4" s="6" customFormat="1">
+      <c r="B109" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="2:4" s="6" customFormat="1">
+      <c r="B110" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="23" t="s">
-        <v>139</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>14</v>
@@ -3574,8 +3568,8 @@
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="24" t="s">
-        <v>142</v>
+      <c r="B112" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>14</v>
@@ -3583,8 +3577,8 @@
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="20" t="s">
-        <v>49</v>
+      <c r="B113" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>14</v>
@@ -3593,7 +3587,7 @@
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
       <c r="B114" s="23" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>14</v>
@@ -3602,7 +3596,7 @@
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
       <c r="B115" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>14</v>
@@ -3610,8 +3604,8 @@
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="23" t="s">
-        <v>139</v>
+      <c r="B116" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>14</v>
@@ -3620,7 +3614,7 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="24" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>14</v>
@@ -3628,8 +3622,8 @@
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="24" t="s">
-        <v>142</v>
+      <c r="B118" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>14</v>
@@ -3637,17 +3631,17 @@
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="20" t="s">
+      <c r="B119" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="2:4" s="6" customFormat="1">
+      <c r="B120" s="22" t="s">
         <v>50</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="23" t="s">
-        <v>140</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>14</v>
@@ -3665,7 +3659,7 @@
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
       <c r="B122" s="22" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>14</v>
@@ -3673,22 +3667,22 @@
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B123" s="22"/>
+      <c r="C123" s="7"/>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="22"/>
-      <c r="C124" s="7"/>
+      <c r="B124" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="22" t="s">
-        <v>54</v>
+      <c r="B125" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>14</v>
@@ -3696,17 +3690,17 @@
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B126" s="22"/>
+      <c r="C126" s="7"/>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="22"/>
-      <c r="C127" s="7"/>
+      <c r="B127" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
@@ -3718,98 +3712,98 @@
       </c>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="4"/>
+    <row r="131" spans="2:4" s="6" customFormat="1">
+      <c r="B131" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="2:4" s="6" customFormat="1">
+      <c r="B133" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="2:4" s="6" customFormat="1">
+      <c r="B134" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="2:4" s="6" customFormat="1">
+      <c r="B135" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="2:4" s="6" customFormat="1">
+      <c r="B136" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="2:4" s="6" customFormat="1">
+      <c r="B137" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="2:4" s="6" customFormat="1">
+      <c r="B138" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C132" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="23" t="s">
+      <c r="C138" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="2:4" s="6" customFormat="1">
+      <c r="B139" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C138" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="22" t="s">
+      <c r="C139" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="2:4" s="6" customFormat="1">
+      <c r="B140" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C139" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="20" t="s">
-        <v>145</v>
-      </c>
       <c r="C140" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="22" t="s">
+      <c r="B141" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C141" s="7" t="s">
@@ -3818,8 +3812,8 @@
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="20" t="s">
-        <v>87</v>
+      <c r="B142" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>14</v>
@@ -3828,7 +3822,7 @@
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
       <c r="B143" s="22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>14</v>
@@ -3837,7 +3831,7 @@
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
       <c r="B144" s="22" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>14</v>
@@ -3845,8 +3839,8 @@
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="22" t="s">
-        <v>50</v>
+      <c r="B145" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>14</v>
@@ -3854,12 +3848,8 @@
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B146" s="22"/>
+      <c r="C146" s="7"/>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
@@ -3868,13 +3858,17 @@
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="22"/>
-      <c r="C148" s="7"/>
+      <c r="B148" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="3" t="s">
-        <v>90</v>
+      <c r="B149" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>14</v>
@@ -3883,7 +3877,7 @@
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
       <c r="B150" s="22" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>14</v>
@@ -3891,25 +3885,25 @@
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="22" t="s">
+      <c r="B151" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="2:4" s="6" customFormat="1">
+      <c r="B152" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C151" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" s="4"/>
-    </row>
-    <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="20" t="s">
-        <v>145</v>
-      </c>
       <c r="C152" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="22" t="s">
+      <c r="B153" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -3918,8 +3912,8 @@
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="20" t="s">
-        <v>87</v>
+      <c r="B154" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>14</v>
@@ -3928,7 +3922,7 @@
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
       <c r="B155" s="22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>14</v>
@@ -3936,12 +3930,8 @@
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B156" s="22"/>
+      <c r="C156" s="7"/>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
@@ -3950,12 +3940,16 @@
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="22"/>
-      <c r="C158" s="7"/>
+      <c r="B158" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="22" t="s">
         <v>124</v>
       </c>
       <c r="C159" s="7" t="s">
@@ -3965,7 +3959,7 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="22" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>14</v>
@@ -3974,7 +3968,7 @@
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
       <c r="B161" s="22" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>14</v>
@@ -3982,25 +3976,25 @@
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="22" t="s">
+      <c r="B162" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="2:4" s="6" customFormat="1">
+      <c r="B163" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" s="4"/>
-    </row>
-    <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="20" t="s">
-        <v>145</v>
-      </c>
       <c r="C163" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
-      <c r="B164" s="22" t="s">
+      <c r="B164" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C164" s="7" t="s">
@@ -4009,8 +4003,8 @@
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="20" t="s">
-        <v>87</v>
+      <c r="B165" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>14</v>
@@ -4019,7 +4013,7 @@
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>14</v>
@@ -4027,12 +4021,8 @@
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B167" s="22"/>
+      <c r="C167" s="7"/>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
@@ -4041,13 +4031,17 @@
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="22"/>
-      <c r="C169" s="7"/>
+      <c r="B169" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="3" t="s">
-        <v>26</v>
+      <c r="B170" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>14</v>
@@ -4055,8 +4049,8 @@
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="22" t="s">
-        <v>146</v>
+      <c r="B171" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>14</v>
@@ -4064,8 +4058,8 @@
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="20" t="s">
-        <v>80</v>
+      <c r="B172" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>14</v>
@@ -4074,7 +4068,7 @@
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
       <c r="B173" s="23" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>14</v>
@@ -4083,7 +4077,7 @@
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
       <c r="B174" s="23" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>14</v>
@@ -4091,8 +4085,8 @@
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="23" t="s">
-        <v>127</v>
+      <c r="B175" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>14</v>
@@ -4100,8 +4094,8 @@
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="20" t="s">
-        <v>29</v>
+      <c r="B176" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>14</v>
@@ -4109,8 +4103,8 @@
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="23" t="s">
-        <v>151</v>
+      <c r="B177" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>14</v>
@@ -4118,8 +4112,8 @@
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="22" t="s">
-        <v>55</v>
+      <c r="B178" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>14</v>
@@ -4127,7 +4121,7 @@
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="20" t="s">
+      <c r="B179" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C179" s="7" t="s">
@@ -4136,12 +4130,8 @@
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B180" s="22"/>
+      <c r="C180" s="7"/>
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
@@ -4150,12 +4140,16 @@
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="22"/>
-      <c r="C182" s="7"/>
+      <c r="B182" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="22" t="s">
         <v>101</v>
       </c>
       <c r="C183" s="7" t="s">
@@ -4165,7 +4159,7 @@
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
       <c r="B184" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>14</v>
@@ -4174,7 +4168,7 @@
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
       <c r="B185" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>14</v>
@@ -4183,7 +4177,7 @@
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
       <c r="B186" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>14</v>
@@ -4200,7 +4194,7 @@
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="22" t="s">
+      <c r="B188" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C188" s="7" t="s">
@@ -4219,7 +4213,7 @@
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
       <c r="B190" s="20" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>14</v>
@@ -4228,7 +4222,7 @@
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
       <c r="B191" s="20" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>14</v>
@@ -4246,7 +4240,7 @@
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
       <c r="B193" s="20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>14</v>
@@ -4254,12 +4248,8 @@
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B194" s="20"/>
+      <c r="C194" s="7"/>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
@@ -4268,12 +4258,16 @@
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="20"/>
-      <c r="C196" s="7"/>
+      <c r="B196" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="22" t="s">
         <v>120</v>
       </c>
       <c r="C197" s="7" t="s">
@@ -4300,12 +4294,8 @@
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B200" s="22"/>
+      <c r="C200" s="7"/>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
@@ -4314,12 +4304,16 @@
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="22"/>
-      <c r="C202" s="7"/>
+      <c r="B202" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C203" s="7" t="s">
@@ -4329,7 +4323,7 @@
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
       <c r="B204" s="22" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>14</v>
@@ -4346,27 +4340,27 @@
       <c r="D205" s="4"/>
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B206" s="43"/>
+      <c r="C206" s="4"/>
       <c r="D206" s="4"/>
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="43"/>
+      <c r="B207" s="21"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="21"/>
-      <c r="C208" s="4"/>
+      <c r="B208" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="1:4" s="6" customFormat="1">
-      <c r="B209" s="3" t="s">
-        <v>23</v>
+      <c r="B209" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>14</v>
@@ -4375,7 +4369,7 @@
     </row>
     <row r="210" spans="1:4" s="6" customFormat="1">
       <c r="B210" s="22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>14</v>
@@ -4383,21 +4377,17 @@
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="1:4" s="6" customFormat="1">
-      <c r="B211" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B211" s="22"/>
+      <c r="C211" s="4"/>
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="1:4" s="6" customFormat="1">
-      <c r="B212" s="22"/>
+      <c r="B212" s="19"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="1:4" s="6" customFormat="1">
-      <c r="B213" s="19"/>
+      <c r="B213" s="21"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
     </row>
@@ -4406,81 +4396,76 @@
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="1:4" s="6" customFormat="1">
-      <c r="B215" s="21"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
+    <row r="215" spans="1:4">
+      <c r="A215" s="3"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="11"/>
+      <c r="D215" s="3"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="3"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="11"/>
-      <c r="D216" s="3"/>
+      <c r="B216" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="6">
+        <f>COUNTIF(C5:C215,"y")</f>
+        <v>12</v>
+      </c>
+      <c r="D216" s="2"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="3"/>
       <c r="B217" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C217" s="6">
-        <f>COUNTIF(C5:C216,"y")</f>
-        <v>3</v>
+        <f>COUNTIF(C5:C215,"n")</f>
+        <v>158</v>
       </c>
       <c r="D217" s="2"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="3"/>
       <c r="B218" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" s="6">
-        <f>COUNTIF(C5:C216,"n")</f>
-        <v>168</v>
+        <v>3</v>
+      </c>
+      <c r="C218" s="7">
+        <f>COUNTIF(C5:C215,"TBD")</f>
+        <v>0</v>
       </c>
       <c r="D218" s="2"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="3"/>
       <c r="B219" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C219" s="7">
-        <f>COUNTIF(C5:C216,"TBD")</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C219">
+        <f>SUM(C216:C218)</f>
+        <v>170</v>
       </c>
       <c r="D219" s="2"/>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" ht="18">
       <c r="A220" s="3"/>
-      <c r="B220" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C220">
-        <f>SUM(C217:C219)</f>
-        <v>171</v>
-      </c>
-      <c r="D220" s="2"/>
-    </row>
-    <row r="221" spans="1:4" ht="18">
+      <c r="B220" s="10"/>
+      <c r="C220" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" s="41">
+        <f>C216/(C217+C216 + C218)</f>
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" s="3"/>
-      <c r="B221" s="10"/>
-      <c r="C221" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D221" s="41">
-        <f>C217/(C218+C217 + C219)</f>
-        <v>1.7543859649122806E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="3"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="11"/>
-      <c r="D222" s="3"/>
+      <c r="B221" s="11"/>
+      <c r="C221" s="11"/>
+      <c r="D221" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C132:C64970 C1:C3 C6:C129">
+  <conditionalFormatting sqref="C131:C64969 C1:C3 C6:C128">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -4505,9 +4490,9 @@
   <dimension ref="A1:IT863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection activeCell="E47" sqref="E46:E47"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="10020" topLeftCell="A46"/>
+      <selection activeCell="P41" sqref="P41"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4744,7 +4729,7 @@
     </row>
     <row r="48" spans="1:11" s="6" customFormat="1">
       <c r="A48" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
@@ -4768,13 +4753,13 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B49" s="4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C49" s="4">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -4783,11 +4768,11 @@
         <v>0</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G49" s="30">
         <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
-        <v>1.7543859649122806E-2</v>
+        <v>7.0588235294117646E-2</v>
       </c>
       <c r="H49" s="7"/>
     </row>
@@ -4832,25 +4817,25 @@
       </c>
       <c r="G52" s="38">
         <f>MIN(G49)</f>
-        <v>1.7543859649122806E-2</v>
+        <v>7.0588235294117646E-2</v>
       </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="39">
         <f>SUM(B53:D53)</f>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B53" s="15">
+        <f>Features!C216</f>
+        <v>12</v>
+      </c>
+      <c r="C53" s="16">
         <f>Features!C217</f>
-        <v>3</v>
-      </c>
-      <c r="C53" s="16">
+        <v>158</v>
+      </c>
+      <c r="D53" s="17">
         <f>Features!C218</f>
-        <v>168</v>
-      </c>
-      <c r="D53" s="17">
-        <f>Features!C219</f>
         <v>0</v>
       </c>
       <c r="E53" s="18">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="171">
   <si>
     <t>Feature</t>
   </si>
@@ -116,9 +116,6 @@
     <t>toolbar</t>
   </si>
   <si>
-    <t>Password Safe</t>
-  </si>
-  <si>
     <t>logo</t>
   </si>
   <si>
@@ -473,18 +470,12 @@
     <t>customize button</t>
   </si>
   <si>
-    <t>3.02.43</t>
-  </si>
-  <si>
     <t>12/22/16</t>
   </si>
   <si>
     <t>12/25/16</t>
   </si>
   <si>
-    <t>Password Safe FX Features</t>
-  </si>
-  <si>
     <t>opens empty file with no password set if no file</t>
   </si>
   <si>
@@ -498,6 +489,48 @@
   </si>
   <si>
     <t>option?</t>
+  </si>
+  <si>
+    <t>Passwørd Safe FX</t>
+  </si>
+  <si>
+    <t>set language from default locale</t>
+  </si>
+  <si>
+    <t>Generate Password Dialog</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>mix uppercase lowercase</t>
+  </si>
+  <si>
+    <t>special symbols</t>
+  </si>
+  <si>
+    <t>avoid symbols</t>
+  </si>
+  <si>
+    <t>punctuation</t>
+  </si>
+  <si>
+    <t>full strength</t>
+  </si>
+  <si>
+    <t>Generate Key Dialog</t>
+  </si>
+  <si>
+    <t>key type</t>
+  </si>
+  <si>
+    <t>encrypt file</t>
+  </si>
+  <si>
+    <t>4.00.60</t>
   </si>
 </sst>
 </file>
@@ -706,175 +739,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill>
@@ -1380,7 +1245,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>158</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,7 +1654,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0588235294117646E-2</c:v>
+                  <c:v>6.5934065934065936E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1979,7 +1844,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>158</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2635,10 +2500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2651,7 +2516,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -2674,14 +2539,14 @@
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1">
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="B6" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>2</v>
@@ -2690,7 +2555,7 @@
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="B7" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>2</v>
@@ -2699,7 +2564,7 @@
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="B8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>14</v>
@@ -2708,7 +2573,7 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>14</v>
@@ -2717,7 +2582,7 @@
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="B10" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>14</v>
@@ -2731,7 +2596,7 @@
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="B12" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>14</v>
@@ -2740,7 +2605,7 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="B13" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>14</v>
@@ -2748,157 +2613,141 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
-      <c r="B14" s="19"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4" s="6" customFormat="1">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4" s="6" customFormat="1">
+      <c r="B18" s="19"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" s="6" customFormat="1">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" s="6" customFormat="1">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="2:4" s="6" customFormat="1">
-      <c r="B17" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="2:4" s="6" customFormat="1">
-      <c r="B18" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="2:4" s="6" customFormat="1">
-      <c r="B19" s="22" t="s">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" s="6" customFormat="1">
+      <c r="B21" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:4" s="6" customFormat="1">
+      <c r="B22" s="22"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:4" s="6" customFormat="1">
+      <c r="B23" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="2:4" s="6" customFormat="1">
+      <c r="B24" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="2:4" s="6" customFormat="1">
+      <c r="B25" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="2:4" s="6" customFormat="1">
+      <c r="B26" s="22"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:4" s="6" customFormat="1">
+      <c r="B27" s="22"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="2:4" s="6" customFormat="1">
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:4" s="6" customFormat="1">
+      <c r="B29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:4" s="6" customFormat="1">
-      <c r="B20" s="22"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:4" s="6" customFormat="1">
-      <c r="B21" s="22"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="2:4" s="6" customFormat="1">
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" s="6" customFormat="1">
-      <c r="B23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" s="6" customFormat="1">
-      <c r="B24" s="22"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:4" s="6" customFormat="1">
-      <c r="B25" s="22"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="2:4" s="6" customFormat="1">
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:4" s="6" customFormat="1">
-      <c r="B27" s="22" t="s">
+    </row>
+    <row r="30" spans="2:4" s="6" customFormat="1">
+      <c r="B30" s="22"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:4" s="6" customFormat="1">
+      <c r="B31" s="22"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="2:4" s="6" customFormat="1">
+      <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:4" s="6" customFormat="1">
-      <c r="B29" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:4" s="6" customFormat="1">
-      <c r="B30" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:4" s="6" customFormat="1">
-      <c r="B31" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="2:4" s="6" customFormat="1">
-      <c r="B32" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="C32" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
-      <c r="B33" s="20" t="s">
-        <v>75</v>
+      <c r="B33" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>14</v>
@@ -2916,7 +2765,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="20" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>14</v>
@@ -2924,8 +2773,8 @@
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="22" t="s">
-        <v>82</v>
+      <c r="B36" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>14</v>
@@ -2933,8 +2782,8 @@
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
-      <c r="B37" s="20" t="s">
-        <v>125</v>
+      <c r="B37" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>14</v>
@@ -2942,8 +2791,8 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="22" t="s">
-        <v>112</v>
+      <c r="B38" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>14</v>
@@ -2952,7 +2801,7 @@
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
       <c r="B39" s="20" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>14</v>
@@ -2961,7 +2810,7 @@
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
       <c r="B40" s="22" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>14</v>
@@ -2969,8 +2818,8 @@
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="22" t="s">
-        <v>131</v>
+      <c r="B41" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -2978,13 +2827,17 @@
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="19"/>
-      <c r="C42" s="4"/>
+      <c r="B42" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
-      <c r="B43" s="22" t="s">
-        <v>67</v>
+      <c r="B43" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>14</v>
@@ -2992,8 +2845,8 @@
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="20" t="s">
-        <v>68</v>
+      <c r="B44" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
@@ -3002,7 +2855,7 @@
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
       <c r="B45" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>14</v>
@@ -3010,27 +2863,31 @@
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="19"/>
-      <c r="C46" s="4"/>
+      <c r="B46" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="B47" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
-      <c r="B48" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="22" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>14</v>
@@ -3038,8 +2895,8 @@
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
-      <c r="B50" s="22" t="s">
-        <v>93</v>
+      <c r="B50" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>14</v>
@@ -3047,8 +2904,8 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="22" t="s">
-        <v>57</v>
+      <c r="B51" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
@@ -3056,26 +2913,18 @@
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
-      <c r="B54" s="20" t="s">
-        <v>115</v>
+      <c r="B54" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>14</v>
@@ -3084,7 +2933,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -3093,7 +2942,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -3102,7 +2951,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -3110,13 +2959,17 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
-      <c r="B58" s="22"/>
-      <c r="C58" s="7"/>
+      <c r="B58" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>14</v>
@@ -3124,8 +2977,8 @@
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="22" t="s">
-        <v>62</v>
+      <c r="B60" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>14</v>
@@ -3133,8 +2986,8 @@
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="20" t="s">
-        <v>64</v>
+      <c r="B61" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>14</v>
@@ -3142,13 +2995,17 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="22"/>
-      <c r="C62" s="7"/>
+      <c r="B62" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="22" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -3156,17 +3013,13 @@
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="22" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
@@ -3174,99 +3027,95 @@
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="22"/>
-      <c r="C66" s="7"/>
+      <c r="B66" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="22"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="2:4" s="6" customFormat="1">
+      <c r="B70" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="2:4" s="6" customFormat="1">
+      <c r="B71" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="2:4" s="6" customFormat="1">
+      <c r="B72" s="22"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="2:4" s="6" customFormat="1">
+      <c r="B73" s="22"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="2:4" s="6" customFormat="1">
+      <c r="B74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="2:4" s="6" customFormat="1">
+      <c r="B75" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="20" t="s">
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="2:4" s="6" customFormat="1">
+      <c r="B76" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="23" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
@@ -3275,16 +3124,16 @@
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="23" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="20" t="s">
-        <v>20</v>
+      <c r="B79" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>2</v>
@@ -3293,7 +3142,7 @@
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="23" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
@@ -3302,7 +3151,7 @@
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
       <c r="B81" s="23" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>14</v>
@@ -3311,7 +3160,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="23" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>14</v>
@@ -3320,7 +3169,7 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="23" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
@@ -3329,34 +3178,34 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="23" t="s">
-        <v>42</v>
+      <c r="B85" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="20" t="s">
-        <v>16</v>
+      <c r="B86" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="23" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>14</v>
@@ -3365,7 +3214,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="23" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>14</v>
@@ -3374,7 +3223,7 @@
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
       <c r="B89" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>14</v>
@@ -3383,7 +3232,7 @@
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="23" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -3392,7 +3241,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="23" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3400,122 +3249,130 @@
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="23" t="s">
-        <v>116</v>
+      <c r="B92" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
       <c r="B93" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="2:4" s="6" customFormat="1">
+      <c r="B94" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="2:4" s="6" customFormat="1">
+      <c r="B95" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="2:4" s="6" customFormat="1">
+      <c r="B96" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="2:4" s="6" customFormat="1">
+      <c r="B97" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="2:4" s="6" customFormat="1">
+      <c r="B98" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="2:4" s="6" customFormat="1">
+      <c r="B99" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="2:4" s="6" customFormat="1">
+      <c r="B100" s="22"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="2:4" s="6" customFormat="1">
+      <c r="B101" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="2:4" s="6" customFormat="1">
+      <c r="B102" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="2:4" s="6" customFormat="1">
+      <c r="B103" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="22"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="2:4" s="6" customFormat="1">
-      <c r="B97" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="2:4" s="6" customFormat="1">
-      <c r="B99" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="2:4" s="6" customFormat="1">
-      <c r="B100" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="22"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="22" t="s">
-        <v>27</v>
-      </c>
       <c r="C103" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
-      <c r="B104" s="22"/>
-      <c r="C104" s="7"/>
+      <c r="B104" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
-      <c r="B105" s="22" t="s">
-        <v>45</v>
+      <c r="B105" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
       <c r="B106" s="20" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>14</v>
@@ -3523,8 +3380,8 @@
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="23" t="s">
-        <v>139</v>
+      <c r="B107" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>14</v>
@@ -3532,44 +3389,36 @@
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B108" s="22"/>
+      <c r="C108" s="7"/>
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="23" t="s">
-        <v>138</v>
+      <c r="B109" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B110" s="22"/>
+      <c r="C110" s="7"/>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="24" t="s">
-        <v>141</v>
+      <c r="B111" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
       <c r="B112" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>14</v>
@@ -3578,7 +3427,7 @@
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
       <c r="B113" s="23" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>14</v>
@@ -3586,8 +3435,8 @@
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="23" t="s">
-        <v>142</v>
+      <c r="B114" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>14</v>
@@ -3596,7 +3445,7 @@
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
       <c r="B115" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>14</v>
@@ -3605,7 +3454,7 @@
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
       <c r="B116" s="24" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>14</v>
@@ -3614,7 +3463,7 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>14</v>
@@ -3623,7 +3472,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>14</v>
@@ -3632,7 +3481,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="23" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>14</v>
@@ -3640,40 +3489,44 @@
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="22" t="s">
+      <c r="B120" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="2:4" s="6" customFormat="1">
+      <c r="B121" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="2:4" s="6" customFormat="1">
+      <c r="B122" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="22" t="s">
-        <v>90</v>
-      </c>
       <c r="C122" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="22"/>
-      <c r="C123" s="7"/>
+      <c r="B123" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="22" t="s">
-        <v>53</v>
+      <c r="B124" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>14</v>
@@ -3681,8 +3534,8 @@
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="20" t="s">
-        <v>114</v>
+      <c r="B125" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>14</v>
@@ -3690,13 +3543,17 @@
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="22"/>
-      <c r="C126" s="7"/>
+      <c r="B126" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="22" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>14</v>
@@ -3705,16 +3562,30 @@
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
       <c r="B128" s="22" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="4"/>
     </row>
+    <row r="129" spans="2:4" s="6" customFormat="1">
+      <c r="B129" s="22"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="2:4" s="6" customFormat="1">
+      <c r="B130" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="4"/>
+    </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="3" t="s">
-        <v>83</v>
+      <c r="B131" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>14</v>
@@ -3722,17 +3593,13 @@
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B132" s="22"/>
+      <c r="C132" s="7"/>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="23" t="s">
-        <v>139</v>
+      <c r="B133" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>14</v>
@@ -3741,34 +3608,16 @@
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
       <c r="B134" s="22" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" s="4"/>
-    </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="23" t="s">
-        <v>143</v>
+      <c r="B137" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>14</v>
@@ -3777,7 +3626,7 @@
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
       <c r="B138" s="22" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>14</v>
@@ -3785,8 +3634,8 @@
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="20" t="s">
-        <v>144</v>
+      <c r="B139" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>14</v>
@@ -3795,7 +3644,7 @@
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
       <c r="B140" s="22" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>14</v>
@@ -3803,8 +3652,8 @@
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="20" t="s">
-        <v>86</v>
+      <c r="B141" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>14</v>
@@ -3813,7 +3662,7 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="22" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>14</v>
@@ -3821,8 +3670,8 @@
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="22" t="s">
-        <v>82</v>
+      <c r="B143" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>14</v>
@@ -3831,7 +3680,7 @@
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
       <c r="B144" s="22" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>14</v>
@@ -3839,8 +3688,8 @@
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="23" t="s">
-        <v>139</v>
+      <c r="B145" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>14</v>
@@ -3848,18 +3697,26 @@
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="22"/>
-      <c r="C146" s="7"/>
+      <c r="B146" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="22"/>
-      <c r="C147" s="7"/>
+      <c r="B147" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="3" t="s">
-        <v>89</v>
+      <c r="B148" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>14</v>
@@ -3868,7 +3725,7 @@
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
       <c r="B149" s="22" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>14</v>
@@ -3877,7 +3734,7 @@
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
       <c r="B150" s="22" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>14</v>
@@ -3885,8 +3742,8 @@
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="20" t="s">
-        <v>144</v>
+      <c r="B151" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>14</v>
@@ -3894,25 +3751,17 @@
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B152" s="22"/>
+      <c r="C152" s="7"/>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B153" s="22"/>
+      <c r="C153" s="7"/>
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="22" t="s">
+      <c r="B154" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C154" s="7" t="s">
@@ -3922,7 +3771,7 @@
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
       <c r="B155" s="22" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>14</v>
@@ -3930,18 +3779,26 @@
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="22"/>
-      <c r="C156" s="7"/>
+      <c r="B156" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="22"/>
-      <c r="C157" s="7"/>
+      <c r="B157" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="3" t="s">
-        <v>123</v>
+      <c r="B158" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>14</v>
@@ -3949,8 +3806,8 @@
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="22" t="s">
-        <v>124</v>
+      <c r="B159" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>14</v>
@@ -3959,7 +3816,7 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="22" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>14</v>
@@ -3968,7 +3825,7 @@
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
       <c r="B161" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>14</v>
@@ -3976,26 +3833,18 @@
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B162" s="22"/>
+      <c r="C162" s="7"/>
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B163" s="22"/>
+      <c r="C163" s="7"/>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
-      <c r="B164" s="20" t="s">
-        <v>86</v>
+      <c r="B164" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>14</v>
@@ -4004,7 +3853,7 @@
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
       <c r="B165" s="22" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>14</v>
@@ -4013,7 +3862,7 @@
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="22" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>14</v>
@@ -4021,127 +3870,135 @@
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="22"/>
-      <c r="C167" s="7"/>
+      <c r="B167" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="22"/>
-      <c r="C168" s="7"/>
+      <c r="B168" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" s="4"/>
+    </row>
+    <row r="170" spans="2:4" s="6" customFormat="1">
+      <c r="B170" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="4"/>
+    </row>
+    <row r="171" spans="2:4" s="6" customFormat="1">
+      <c r="B171" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="2:4" s="6" customFormat="1">
+      <c r="B172" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="2:4" s="6" customFormat="1">
+      <c r="B173" s="22"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="2:4" s="6" customFormat="1">
+      <c r="B174" s="22"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="2:4" s="6" customFormat="1">
+      <c r="B175" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C169" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" s="4"/>
-    </row>
-    <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D170" s="4"/>
-    </row>
-    <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D171" s="4"/>
-    </row>
-    <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D172" s="4"/>
-    </row>
-    <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D173" s="4"/>
-    </row>
-    <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D174" s="4"/>
-    </row>
-    <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="20" t="s">
+      <c r="C175" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="2:4" s="6" customFormat="1">
+      <c r="B176" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="2:4" s="6" customFormat="1">
+      <c r="B177" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="2:4" s="6" customFormat="1">
+      <c r="B178" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="2:4" s="6" customFormat="1">
+      <c r="B179" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="2:4" s="6" customFormat="1">
+      <c r="B180" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="2:4" s="6" customFormat="1">
+      <c r="B181" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C175" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D175" s="4"/>
-    </row>
-    <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D176" s="4"/>
-    </row>
-    <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D177" s="4"/>
-    </row>
-    <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D178" s="4"/>
-    </row>
-    <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D179" s="4"/>
-    </row>
-    <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="22"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="4"/>
-    </row>
-    <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="22"/>
-      <c r="C181" s="7"/>
+      <c r="C181" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="3" t="s">
-        <v>100</v>
+      <c r="B182" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>14</v>
@@ -4150,7 +4007,7 @@
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
       <c r="B183" s="22" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>14</v>
@@ -4158,8 +4015,8 @@
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="22" t="s">
-        <v>103</v>
+      <c r="B184" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>14</v>
@@ -4168,125 +4025,125 @@
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
       <c r="B185" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="2:4" s="6" customFormat="1">
+      <c r="B186" s="22"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="2:4" s="6" customFormat="1">
+      <c r="B187" s="22"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="2:4" s="6" customFormat="1">
+      <c r="B188" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="2:4" s="6" customFormat="1">
+      <c r="B189" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="2:4" s="6" customFormat="1">
+      <c r="B190" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C185" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D185" s="4"/>
-    </row>
-    <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="22" t="s">
+      <c r="C190" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="2:4" s="6" customFormat="1">
+      <c r="B191" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="2:4" s="6" customFormat="1">
+      <c r="B192" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="2:4" s="6" customFormat="1">
+      <c r="B193" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C186" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D186" s="4"/>
-    </row>
-    <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="22" t="s">
+      <c r="C193" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="2:4" s="6" customFormat="1">
+      <c r="B194" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C187" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D187" s="4"/>
-    </row>
-    <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="20" t="s">
+      <c r="C194" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="2:4" s="6" customFormat="1">
+      <c r="B195" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C188" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D188" s="4"/>
-    </row>
-    <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="20" t="s">
+      <c r="C195" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="2:4" s="6" customFormat="1">
+      <c r="B196" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="2:4" s="6" customFormat="1">
+      <c r="B197" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C189" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D190" s="4"/>
-    </row>
-    <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="20" t="s">
+      <c r="C197" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D197" s="4"/>
+    </row>
+    <row r="198" spans="2:4" s="6" customFormat="1">
+      <c r="B198" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C191" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D191" s="4"/>
-    </row>
-    <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D192" s="4"/>
-    </row>
-    <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D193" s="4"/>
-    </row>
-    <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="20"/>
-      <c r="C194" s="7"/>
-      <c r="D194" s="4"/>
-    </row>
-    <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="20"/>
-      <c r="C195" s="7"/>
-      <c r="D195" s="4"/>
-    </row>
-    <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D196" s="4"/>
-    </row>
-    <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D197" s="4"/>
-    </row>
-    <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="22" t="s">
-        <v>121</v>
-      </c>
       <c r="C198" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="22" t="s">
-        <v>122</v>
+      <c r="B199" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>14</v>
@@ -4294,18 +4151,18 @@
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="22"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="7"/>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="22"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="7"/>
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
       <c r="B202" s="3" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>14</v>
@@ -4314,7 +4171,7 @@
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
       <c r="B203" s="22" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>14</v>
@@ -4323,7 +4180,7 @@
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
       <c r="B204" s="22" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>14</v>
@@ -4332,7 +4189,7 @@
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
       <c r="B205" s="22" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>14</v>
@@ -4340,132 +4197,288 @@
       <c r="D205" s="4"/>
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="43"/>
-      <c r="C206" s="4"/>
+      <c r="B206" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D206" s="4"/>
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="21"/>
-      <c r="C207" s="4"/>
+      <c r="B207" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" s="4"/>
+    </row>
+    <row r="209" spans="2:4" s="6" customFormat="1">
+      <c r="B209" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" s="4"/>
+    </row>
+    <row r="210" spans="2:4" s="6" customFormat="1">
+      <c r="B210" s="20"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="4"/>
+    </row>
+    <row r="211" spans="2:4" s="6" customFormat="1">
+      <c r="B211" s="20"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="4"/>
+    </row>
+    <row r="212" spans="2:4" s="6" customFormat="1">
+      <c r="B212" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D212" s="4"/>
+    </row>
+    <row r="213" spans="2:4" s="6" customFormat="1">
+      <c r="B213" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D213" s="4"/>
+    </row>
+    <row r="214" spans="2:4" s="6" customFormat="1">
+      <c r="B214" s="20"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="4"/>
+    </row>
+    <row r="215" spans="2:4" s="6" customFormat="1">
+      <c r="B215" s="20"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="4"/>
+    </row>
+    <row r="216" spans="2:4" s="6" customFormat="1">
+      <c r="B216" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D216" s="4"/>
+    </row>
+    <row r="217" spans="2:4" s="6" customFormat="1">
+      <c r="B217" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217" s="4"/>
+    </row>
+    <row r="218" spans="2:4" s="6" customFormat="1">
+      <c r="B218" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D218" s="4"/>
+    </row>
+    <row r="219" spans="2:4" s="6" customFormat="1">
+      <c r="B219" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D219" s="4"/>
+    </row>
+    <row r="220" spans="2:4" s="6" customFormat="1">
+      <c r="B220" s="22"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="4"/>
+    </row>
+    <row r="221" spans="2:4" s="6" customFormat="1">
+      <c r="B221" s="22"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="2:4" s="6" customFormat="1">
+      <c r="B222" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D222" s="4"/>
+    </row>
+    <row r="223" spans="2:4" s="6" customFormat="1">
+      <c r="B223" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D223" s="4"/>
+    </row>
+    <row r="224" spans="2:4" s="6" customFormat="1">
+      <c r="B224" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="1:4" s="6" customFormat="1">
+      <c r="B225" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="1:4" s="6" customFormat="1">
+      <c r="B226" s="43"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="1:4" s="6" customFormat="1">
+      <c r="B227" s="21"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+    </row>
+    <row r="228" spans="1:4" s="6" customFormat="1">
+      <c r="B228" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C208" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D208" s="4"/>
-    </row>
-    <row r="209" spans="1:4" s="6" customFormat="1">
-      <c r="B209" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D209" s="4"/>
-    </row>
-    <row r="210" spans="1:4" s="6" customFormat="1">
-      <c r="B210" s="22" t="s">
+      <c r="C228" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D228" s="4"/>
+    </row>
+    <row r="229" spans="1:4" s="6" customFormat="1">
+      <c r="B229" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="1:4" s="6" customFormat="1">
+      <c r="B230" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C210" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D210" s="4"/>
-    </row>
-    <row r="211" spans="1:4" s="6" customFormat="1">
-      <c r="B211" s="22"/>
-      <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
-    </row>
-    <row r="212" spans="1:4" s="6" customFormat="1">
-      <c r="B212" s="19"/>
-      <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
-    </row>
-    <row r="213" spans="1:4" s="6" customFormat="1">
-      <c r="B213" s="21"/>
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
-    </row>
-    <row r="214" spans="1:4" s="6" customFormat="1">
-      <c r="B214" s="21"/>
-      <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="3"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="11"/>
-      <c r="D215" s="3"/>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="3"/>
-      <c r="B216" s="8" t="s">
+      <c r="C230" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="1:4" s="6" customFormat="1">
+      <c r="B231" s="22"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+    </row>
+    <row r="232" spans="1:4" s="6" customFormat="1">
+      <c r="B232" s="19"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+    </row>
+    <row r="233" spans="1:4" s="6" customFormat="1">
+      <c r="B233" s="21"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+    </row>
+    <row r="234" spans="1:4" s="6" customFormat="1">
+      <c r="B234" s="21"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="3"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="11"/>
+      <c r="D235" s="3"/>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="3"/>
+      <c r="B236" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C216" s="6">
-        <f>COUNTIF(C5:C215,"y")</f>
+      <c r="C236" s="6">
+        <f>COUNTIF(C5:C235,"y")</f>
         <v>12</v>
       </c>
-      <c r="D216" s="2"/>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="3"/>
-      <c r="B217" s="8" t="s">
+      <c r="D236" s="2"/>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="3"/>
+      <c r="B237" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C217" s="6">
-        <f>COUNTIF(C5:C215,"n")</f>
-        <v>158</v>
-      </c>
-      <c r="D217" s="2"/>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="3"/>
-      <c r="B218" s="8" t="s">
+      <c r="C237" s="6">
+        <f>COUNTIF(C5:C235,"n")</f>
+        <v>170</v>
+      </c>
+      <c r="D237" s="2"/>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="3"/>
+      <c r="B238" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C218" s="7">
-        <f>COUNTIF(C5:C215,"TBD")</f>
+      <c r="C238" s="7">
+        <f>COUNTIF(C5:C235,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D218" s="2"/>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="3"/>
-      <c r="B219" s="8" t="s">
+      <c r="D238" s="2"/>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="3"/>
+      <c r="B239" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C219">
-        <f>SUM(C216:C218)</f>
-        <v>170</v>
-      </c>
-      <c r="D219" s="2"/>
-    </row>
-    <row r="220" spans="1:4" ht="18">
-      <c r="A220" s="3"/>
-      <c r="B220" s="10"/>
-      <c r="C220" s="10" t="s">
+      <c r="C239">
+        <f>SUM(C236:C238)</f>
+        <v>182</v>
+      </c>
+      <c r="D239" s="2"/>
+    </row>
+    <row r="240" spans="1:4" ht="18">
+      <c r="A240" s="3"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D220" s="41">
-        <f>C216/(C217+C216 + C218)</f>
-        <v>7.0588235294117646E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="3"/>
-      <c r="B221" s="11"/>
-      <c r="C221" s="11"/>
-      <c r="D221" s="3"/>
+      <c r="D240" s="41">
+        <f>C236/(C237+C236 + C238)</f>
+        <v>6.5934065934065936E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="3"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C131:C64969 C1:C3 C6:C128">
+  <conditionalFormatting sqref="C1:C3 C6:C134 C137:C64989">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -4490,9 +4503,9 @@
   <dimension ref="A1:IT863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10020" topLeftCell="A46"/>
-      <selection activeCell="P41" sqref="P41"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4513,7 +4526,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="37" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -4729,7 +4742,7 @@
     </row>
     <row r="48" spans="1:11" s="6" customFormat="1">
       <c r="A48" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
@@ -4753,13 +4766,13 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B49" s="4">
         <v>12</v>
       </c>
       <c r="C49" s="4">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -4768,11 +4781,11 @@
         <v>0</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="G49" s="30">
         <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
-        <v>7.0588235294117646E-2</v>
+        <v>6.5934065934065936E-2</v>
       </c>
       <c r="H49" s="7"/>
     </row>
@@ -4817,25 +4830,25 @@
       </c>
       <c r="G52" s="38">
         <f>MIN(G49)</f>
-        <v>7.0588235294117646E-2</v>
+        <v>6.5934065934065936E-2</v>
       </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="39">
         <f>SUM(B53:D53)</f>
+        <v>182</v>
+      </c>
+      <c r="B53" s="15">
+        <f>Features!C236</f>
+        <v>12</v>
+      </c>
+      <c r="C53" s="16">
+        <f>Features!C237</f>
         <v>170</v>
       </c>
-      <c r="B53" s="15">
-        <f>Features!C216</f>
-        <v>12</v>
-      </c>
-      <c r="C53" s="16">
-        <f>Features!C217</f>
-        <v>158</v>
-      </c>
       <c r="D53" s="17">
-        <f>Features!C218</f>
+        <f>Features!C238</f>
         <v>0</v>
       </c>
       <c r="E53" s="18">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="184">
   <si>
     <t>Feature</t>
   </si>
@@ -173,21 +173,12 @@
     <t>Copy password to clipboard button</t>
   </si>
   <si>
-    <t>Clear Clipboard</t>
-  </si>
-  <si>
     <t>locks after timeout</t>
   </si>
   <si>
     <t>Security</t>
   </si>
   <si>
-    <t>Copy User Name</t>
-  </si>
-  <si>
-    <t>Copy Password</t>
-  </si>
-  <si>
     <t>Browse button</t>
   </si>
   <si>
@@ -257,9 +248,6 @@
     <t>interface language</t>
   </si>
   <si>
-    <t>Clear clipboard button</t>
-  </si>
-  <si>
     <t>Lock button</t>
   </si>
   <si>
@@ -290,9 +278,6 @@
     <t>Change password button</t>
   </si>
   <si>
-    <t>Save button</t>
-  </si>
-  <si>
     <t>Change Database Password</t>
   </si>
   <si>
@@ -302,9 +287,6 @@
     <t>*.safe file filter</t>
   </si>
   <si>
-    <t>Exit button</t>
-  </si>
-  <si>
     <t>Create Password Database Dialog</t>
   </si>
   <si>
@@ -350,12 +332,6 @@
     <t>disabled if no password</t>
   </si>
   <si>
-    <t>disables buttons except Exit</t>
-  </si>
-  <si>
-    <t>OK button</t>
-  </si>
-  <si>
     <t>finnish</t>
   </si>
   <si>
@@ -410,9 +386,6 @@
     <t>AES 256 cipher in EAX mode</t>
   </si>
   <si>
-    <t>Create New button</t>
-  </si>
-  <si>
     <t>New Database</t>
   </si>
   <si>
@@ -422,9 +395,6 @@
     <t>open incognito</t>
   </si>
   <si>
-    <t>Delete Entry</t>
-  </si>
-  <si>
     <t>Contact Customer Support</t>
   </si>
   <si>
@@ -531,6 +501,75 @@
   </si>
   <si>
     <t>4.00.60</t>
+  </si>
+  <si>
+    <t>12/29/16</t>
+  </si>
+  <si>
+    <t>show countown when less than 15 seconds</t>
+  </si>
+  <si>
+    <t>Custom fields</t>
+  </si>
+  <si>
+    <t>Clipboard</t>
+  </si>
+  <si>
+    <t>copy password</t>
+  </si>
+  <si>
+    <t>copy custom fields</t>
+  </si>
+  <si>
+    <t>clear clipboard</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>insert custom field</t>
+  </si>
+  <si>
+    <t>delete custom field</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>Unlock button</t>
+  </si>
+  <si>
+    <t>Create New Safe button</t>
+  </si>
+  <si>
+    <t>disables buttons</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>opens file browser</t>
+  </si>
+  <si>
+    <t>UI Components</t>
+  </si>
+  <si>
+    <t>shows alternating *$*$</t>
+  </si>
+  <si>
+    <t>constant text length to mask real length</t>
+  </si>
+  <si>
+    <t>stores text encrypted</t>
   </si>
 </sst>
 </file>
@@ -649,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -735,263 +774,14 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -1135,8 +925,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954903"/>
-          <c:h val="0.89627228525120017"/>
+          <c:w val="0.91978071330954914"/>
+          <c:h val="0.89627228525120006"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -1168,29 +958,35 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>12/22/16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12/25/16</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>12/29/16</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$49</c:f>
+              <c:f>Progress!$B$48:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1223,29 +1019,35 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>12/22/16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12/25/16</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>12/29/16</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$49</c:f>
+              <c:f>Progress!$C$48:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,28 +1080,34 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>12/22/16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12/25/16</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>12/29/16</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$49</c:f>
+              <c:f>Progress!$D$48:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1333,9 +1141,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$49</c:f>
+              <c:f>Progress!$A$47:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -1345,30 +1153,36 @@
                 <c:pt idx="2">
                   <c:v>12/25/16</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>12/29/16</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$49</c:f>
+              <c:f>Progress!$E$48:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="151772160"/>
-        <c:axId val="151524096"/>
+        <c:axId val="153026944"/>
+        <c:axId val="153028480"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="151772160"/>
+        <c:axId val="153026944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151524096"/>
+        <c:crossAx val="153028480"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1411,7 +1225,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="151524096"/>
+        <c:axId val="153028480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,7 +1267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151772160"/>
+        <c:crossAx val="153026944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1476,7 +1290,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844409"/>
+          <c:y val="0.3727714748784442"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1543,7 +1357,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001144" r="0.75000000000001144" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001155" r="0.75000000000001155" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1597,7 +1411,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127248E-2"/>
+          <c:x val="4.4510450248127269E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1632,39 +1446,45 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>12/22/16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12/25/16</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>12/29/16</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$49</c:f>
+              <c:f>Progress!$G$48:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.5934065934065936E-2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10880829015544041</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="151549824"/>
-        <c:axId val="151551360"/>
+        <c:axId val="153076864"/>
+        <c:axId val="153078400"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="151549824"/>
+        <c:axId val="153076864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1672,14 +1492,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="151551360"/>
+        <c:crossAx val="153078400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151551360"/>
+        <c:axId val="153078400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1722,7 +1542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151549824"/>
+        <c:crossAx val="153076864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1771,7 +1591,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001144" r="0.75000000000001144" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001155" r="0.75000000000001155" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1822,29 +1642,35 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>12/22/16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12/25/16</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>12/29/16</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$49</c:f>
+              <c:f>Progress!$C$48:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1877,39 +1703,45 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>12/22/16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12/25/16</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>12/29/16</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$49</c:f>
+              <c:f>Progress!$D$48:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="152052480"/>
-        <c:axId val="152054016"/>
+        <c:axId val="153754624"/>
+        <c:axId val="153756416"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="152052480"/>
+        <c:axId val="153754624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,7 +1774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152054016"/>
+        <c:crossAx val="153756416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1951,7 +1783,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152054016"/>
+        <c:axId val="153756416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,7 +1825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152052480"/>
+        <c:crossAx val="153754624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2042,7 +1874,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001144" r="0.75000000000001144" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001155" r="0.75000000000001155" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2092,7 +1924,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2500,10 +2332,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:D267"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2516,7 +2348,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -2539,14 +2371,14 @@
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1">
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="B6" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>2</v>
@@ -2555,7 +2387,7 @@
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="B7" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>2</v>
@@ -2564,7 +2396,7 @@
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="B8" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>14</v>
@@ -2573,7 +2405,7 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>14</v>
@@ -2582,7 +2414,7 @@
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="B10" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>14</v>
@@ -2596,7 +2428,7 @@
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="B12" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>14</v>
@@ -2605,7 +2437,7 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="B13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>14</v>
@@ -2619,7 +2451,7 @@
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="B15" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
@@ -2657,7 +2489,7 @@
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
       <c r="B21" s="22" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>14</v>
@@ -2671,7 +2503,7 @@
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
       <c r="B23" s="22" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>14</v>
@@ -2680,7 +2512,7 @@
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
       <c r="B24" s="22" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -2689,7 +2521,7 @@
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
       <c r="B25" s="22" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -2717,13 +2549,13 @@
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
@@ -2741,7 +2573,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4"/>
     </row>
@@ -2756,16 +2588,16 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="20" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>14</v>
@@ -2774,7 +2606,7 @@
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
       <c r="B36" s="20" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>14</v>
@@ -2783,16 +2615,16 @@
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
       <c r="B37" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
       <c r="B38" s="20" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>14</v>
@@ -2801,16 +2633,18 @@
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
       <c r="B39" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
-      <c r="B40" s="22" t="s">
-        <v>57</v>
+      <c r="B40" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>14</v>
@@ -2818,26 +2652,26 @@
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="2:4" s="6" customFormat="1">
+      <c r="B42" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="22" t="s">
-        <v>81</v>
-      </c>
       <c r="C42" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
-      <c r="B43" s="20" t="s">
-        <v>124</v>
+      <c r="B43" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>14</v>
@@ -2845,8 +2679,8 @@
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="22" t="s">
-        <v>111</v>
+      <c r="B44" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
@@ -2854,17 +2688,17 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="20" t="s">
-        <v>109</v>
+      <c r="B45" s="22" t="s">
+        <v>175</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="22" t="s">
-        <v>94</v>
+      <c r="B46" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>14</v>
@@ -2873,7 +2707,7 @@
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="22" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>14</v>
@@ -2887,28 +2721,28 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="20" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D51" s="4"/>
     </row>
@@ -2924,7 +2758,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>14</v>
@@ -2933,7 +2767,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -2942,7 +2776,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -2951,7 +2785,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -2960,7 +2794,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -2969,7 +2803,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>14</v>
@@ -2978,7 +2812,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>14</v>
@@ -2987,7 +2821,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>14</v>
@@ -2996,7 +2830,7 @@
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>14</v>
@@ -3005,7 +2839,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -3019,7 +2853,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
@@ -3028,7 +2862,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>14</v>
@@ -3037,7 +2871,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -3051,7 +2885,7 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -3060,7 +2894,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -3069,7 +2903,7 @@
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -3115,7 +2949,7 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="23" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
@@ -3124,7 +2958,7 @@
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
@@ -3169,7 +3003,7 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
@@ -3196,7 +3030,7 @@
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
       <c r="B86" s="23" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>14</v>
@@ -3205,7 +3039,7 @@
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="23" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>14</v>
@@ -3213,17 +3047,17 @@
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="23" t="s">
-        <v>51</v>
+      <c r="B88" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
       <c r="B89" s="23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>14</v>
@@ -3232,7 +3066,7 @@
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="23" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -3241,7 +3075,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="23" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3249,26 +3083,26 @@
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="20" t="s">
-        <v>16</v>
+      <c r="B92" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="C92" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="2:4" s="6" customFormat="1">
+      <c r="B93" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
       <c r="B94" s="23" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>14</v>
@@ -3277,7 +3111,7 @@
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
       <c r="B95" s="23" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>14</v>
@@ -3286,7 +3120,7 @@
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
       <c r="B96" s="23" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>14</v>
@@ -3295,7 +3129,7 @@
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
       <c r="B97" s="23" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>14</v>
@@ -3304,7 +3138,7 @@
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
       <c r="B98" s="23" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
@@ -3313,75 +3147,79 @@
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
       <c r="B99" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="2:4" s="6" customFormat="1">
+      <c r="B100" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="2:4" s="6" customFormat="1">
+      <c r="B101" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="2:4" s="6" customFormat="1">
+      <c r="B102" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="2:4" s="6" customFormat="1">
+      <c r="B103" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="2:4" s="6" customFormat="1">
+      <c r="B104" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="2:4" s="6" customFormat="1">
+      <c r="B105" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="2:4" s="6" customFormat="1">
+      <c r="B106" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="2:4" s="6" customFormat="1">
+      <c r="B107" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="2:4" s="6" customFormat="1">
-      <c r="B100" s="22"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="2:4" s="6" customFormat="1">
-      <c r="B104" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="2:4" s="6" customFormat="1">
-      <c r="B105" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="20" t="s">
-        <v>94</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>14</v>
@@ -3395,30 +3233,34 @@
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22"/>
-      <c r="C110" s="7"/>
+      <c r="B110" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="22" t="s">
-        <v>44</v>
+      <c r="B111" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
       <c r="B112" s="20" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>14</v>
@@ -3427,7 +3269,7 @@
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
       <c r="B113" s="23" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>14</v>
@@ -3435,44 +3277,36 @@
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B114" s="22"/>
+      <c r="C114" s="7"/>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="23" t="s">
-        <v>137</v>
+      <c r="B115" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B116" s="22"/>
+      <c r="C116" s="7"/>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="24" t="s">
-        <v>140</v>
+      <c r="B117" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>14</v>
@@ -3481,7 +3315,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="23" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>14</v>
@@ -3489,8 +3323,8 @@
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="23" t="s">
-        <v>141</v>
+      <c r="B120" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>14</v>
@@ -3499,7 +3333,7 @@
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="23" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>14</v>
@@ -3508,7 +3342,7 @@
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
       <c r="B122" s="24" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>14</v>
@@ -3517,7 +3351,7 @@
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
       <c r="B123" s="24" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>14</v>
@@ -3526,7 +3360,7 @@
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
       <c r="B124" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>14</v>
@@ -3535,7 +3369,7 @@
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
       <c r="B125" s="23" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>14</v>
@@ -3543,8 +3377,8 @@
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="22" t="s">
-        <v>49</v>
+      <c r="B126" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>14</v>
@@ -3552,31 +3386,35 @@
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="2:4" s="6" customFormat="1">
+      <c r="B128" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="22" t="s">
-        <v>89</v>
-      </c>
       <c r="C128" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="22"/>
-      <c r="C129" s="7"/>
+      <c r="B129" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="22" t="s">
-        <v>52</v>
+      <c r="B130" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>14</v>
@@ -3585,7 +3423,7 @@
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
       <c r="B131" s="20" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>14</v>
@@ -3593,13 +3431,17 @@
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="22"/>
-      <c r="C132" s="7"/>
+      <c r="B132" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
       <c r="B133" s="22" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>14</v>
@@ -3608,16 +3450,30 @@
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
       <c r="B134" s="22" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="4"/>
     </row>
+    <row r="135" spans="2:4" s="6" customFormat="1">
+      <c r="B135" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="2:4" s="6" customFormat="1">
+      <c r="B136" s="22"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="4"/>
+    </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="3" t="s">
-        <v>82</v>
+      <c r="B137" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>14</v>
@@ -3625,8 +3481,8 @@
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="22" t="s">
-        <v>46</v>
+      <c r="B138" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>14</v>
@@ -3634,17 +3490,13 @@
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B139" s="22"/>
+      <c r="C139" s="7"/>
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
       <c r="B140" s="22" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>14</v>
@@ -3652,199 +3504,63 @@
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="23" t="s">
-        <v>138</v>
+      <c r="B141" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D145" s="4"/>
-    </row>
-    <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="22" t="s">
-        <v>84</v>
+    <row r="144" spans="2:4">
+      <c r="B144" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" t="s">
+        <v>54</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="20" t="s">
-        <v>85</v>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="45" t="s">
+        <v>181</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="22" t="s">
-        <v>87</v>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="45" t="s">
+        <v>182</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D148" s="4"/>
-    </row>
-    <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="22" t="s">
-        <v>81</v>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149" s="45" t="s">
+        <v>183</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D149" s="4"/>
-    </row>
-    <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D150" s="4"/>
-    </row>
-    <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" s="4"/>
-    </row>
-    <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="22"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="22"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="4"/>
-    </row>
-    <row r="155" spans="2:4" s="6" customFormat="1">
-      <c r="B155" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" s="4"/>
-    </row>
-    <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" s="4"/>
-    </row>
-    <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" s="4"/>
-    </row>
-    <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D159" s="4"/>
-    </row>
-    <row r="160" spans="2:4" s="6" customFormat="1">
-      <c r="B160" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" s="4"/>
-    </row>
-    <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="22"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="22"/>
-      <c r="C163" s="7"/>
+      <c r="B163" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
-      <c r="B164" s="3" t="s">
-        <v>122</v>
+      <c r="B164" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>14</v>
@@ -3852,8 +3568,8 @@
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="22" t="s">
-        <v>123</v>
+      <c r="B165" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>14</v>
@@ -3862,34 +3578,34 @@
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="2:4" s="6" customFormat="1">
+      <c r="B167" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="2:4" s="6" customFormat="1">
+      <c r="B168" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C166" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" s="4"/>
-    </row>
-    <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" s="4"/>
-    </row>
-    <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="20" t="s">
-        <v>143</v>
-      </c>
       <c r="C168" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="22" t="s">
-        <v>84</v>
+      <c r="B169" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>14</v>
@@ -3897,8 +3613,8 @@
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="20" t="s">
-        <v>85</v>
+      <c r="B170" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>14</v>
@@ -3906,8 +3622,8 @@
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="22" t="s">
-        <v>87</v>
+      <c r="B171" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>14</v>
@@ -3916,26 +3632,34 @@
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
       <c r="B172" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="2:4" s="6" customFormat="1">
+      <c r="B173" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C172" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D172" s="4"/>
-    </row>
-    <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="22"/>
-      <c r="C173" s="7"/>
+      <c r="C173" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="22"/>
-      <c r="C174" s="7"/>
+      <c r="B174" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="3" t="s">
-        <v>26</v>
+      <c r="B175" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>14</v>
@@ -3944,7 +3668,7 @@
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
       <c r="B176" s="22" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>14</v>
@@ -3952,8 +3676,8 @@
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="20" t="s">
-        <v>78</v>
+      <c r="B177" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>14</v>
@@ -3961,26 +3685,18 @@
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B178" s="22"/>
+      <c r="C178" s="7"/>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B179" s="22"/>
+      <c r="C179" s="7"/>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="23" t="s">
-        <v>125</v>
+      <c r="B180" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>14</v>
@@ -3988,8 +3704,8 @@
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="20" t="s">
-        <v>29</v>
+      <c r="B181" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>14</v>
@@ -3997,8 +3713,8 @@
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="23" t="s">
-        <v>149</v>
+      <c r="B182" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>14</v>
@@ -4006,8 +3722,8 @@
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="22" t="s">
-        <v>53</v>
+      <c r="B183" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>14</v>
@@ -4015,8 +3731,8 @@
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="20" t="s">
-        <v>145</v>
+      <c r="B184" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>14</v>
@@ -4024,8 +3740,8 @@
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="22" t="s">
-        <v>146</v>
+      <c r="B185" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>14</v>
@@ -4033,36 +3749,36 @@
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="22"/>
-      <c r="C186" s="7"/>
+      <c r="B186" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="22"/>
-      <c r="C187" s="7"/>
+      <c r="B187" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B188" s="22"/>
+      <c r="C188" s="7"/>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B189" s="22"/>
+      <c r="C189" s="7"/>
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="22" t="s">
-        <v>102</v>
+      <c r="B190" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>14</v>
@@ -4071,7 +3787,7 @@
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
       <c r="B191" s="22" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>14</v>
@@ -4080,7 +3796,7 @@
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
       <c r="B192" s="22" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>14</v>
@@ -4089,7 +3805,7 @@
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
       <c r="B193" s="22" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>14</v>
@@ -4098,7 +3814,7 @@
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
       <c r="B194" s="20" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>14</v>
@@ -4106,8 +3822,8 @@
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="20" t="s">
-        <v>106</v>
+      <c r="B195" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>14</v>
@@ -4116,7 +3832,7 @@
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
       <c r="B196" s="20" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>14</v>
@@ -4124,8 +3840,8 @@
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="20" t="s">
-        <v>107</v>
+      <c r="B197" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>14</v>
@@ -4133,8 +3849,8 @@
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="20" t="s">
-        <v>108</v>
+      <c r="B198" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>14</v>
@@ -4142,27 +3858,27 @@
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B199" s="22"/>
+      <c r="C199" s="7"/>
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="20"/>
+      <c r="B200" s="22"/>
       <c r="C200" s="7"/>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="20"/>
-      <c r="C201" s="7"/>
+      <c r="B201" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="3" t="s">
-        <v>159</v>
+      <c r="B202" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>14</v>
@@ -4170,8 +3886,8 @@
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="22" t="s">
-        <v>160</v>
+      <c r="B203" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>14</v>
@@ -4179,8 +3895,8 @@
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="22" t="s">
-        <v>161</v>
+      <c r="B204" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>14</v>
@@ -4188,8 +3904,8 @@
       <c r="D204" s="4"/>
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
-      <c r="B205" s="22" t="s">
-        <v>165</v>
+      <c r="B205" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>14</v>
@@ -4197,8 +3913,8 @@
       <c r="D205" s="4"/>
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="22" t="s">
-        <v>162</v>
+      <c r="B206" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>14</v>
@@ -4206,8 +3922,8 @@
       <c r="D206" s="4"/>
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="22" t="s">
-        <v>163</v>
+      <c r="B207" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>14</v>
@@ -4215,8 +3931,8 @@
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="22" t="s">
-        <v>164</v>
+      <c r="B208" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>14</v>
@@ -4225,7 +3941,7 @@
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
       <c r="B209" s="22" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>14</v>
@@ -4233,46 +3949,54 @@
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="20"/>
-      <c r="C210" s="7"/>
+      <c r="B210" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
-      <c r="B211" s="20"/>
-      <c r="C211" s="7"/>
+      <c r="B211" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B212" s="22"/>
+      <c r="C212" s="7"/>
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B213" s="22"/>
+      <c r="C213" s="7"/>
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
-      <c r="B214" s="20"/>
-      <c r="C214" s="7"/>
+      <c r="B214" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
-      <c r="B215" s="20"/>
-      <c r="C215" s="7"/>
+      <c r="B215" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="3" t="s">
-        <v>118</v>
+      <c r="B216" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>14</v>
@@ -4281,7 +4005,7 @@
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
       <c r="B217" s="22" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>14</v>
@@ -4290,7 +4014,7 @@
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
       <c r="B218" s="22" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>14</v>
@@ -4299,7 +4023,7 @@
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
       <c r="B219" s="22" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>14</v>
@@ -4307,18 +4031,26 @@
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
-      <c r="B220" s="22"/>
-      <c r="C220" s="7"/>
+      <c r="B220" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D220" s="4"/>
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
-      <c r="B221" s="22"/>
-      <c r="C221" s="7"/>
+      <c r="B221" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D221" s="4"/>
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
-      <c r="B222" s="3" t="s">
-        <v>69</v>
+      <c r="B222" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>14</v>
@@ -4326,8 +4058,8 @@
       <c r="D222" s="4"/>
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
-      <c r="B223" s="22" t="s">
-        <v>70</v>
+      <c r="B223" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>14</v>
@@ -4335,157 +4067,381 @@
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
-      <c r="B224" s="22" t="s">
-        <v>147</v>
+      <c r="B224" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" spans="1:4" s="6" customFormat="1">
-      <c r="B225" s="22" t="s">
-        <v>148</v>
+    <row r="225" spans="2:4" s="6" customFormat="1">
+      <c r="B225" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4" s="6" customFormat="1">
-      <c r="B226" s="43"/>
-      <c r="C226" s="4"/>
+    <row r="226" spans="2:4" s="6" customFormat="1">
+      <c r="B226" s="20"/>
+      <c r="C226" s="7"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:4" s="6" customFormat="1">
-      <c r="B227" s="21"/>
-      <c r="C227" s="4"/>
+    <row r="227" spans="2:4" s="6" customFormat="1">
+      <c r="B227" s="20"/>
+      <c r="C227" s="7"/>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="1:4" s="6" customFormat="1">
+    <row r="228" spans="2:4" s="6" customFormat="1">
       <c r="B228" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D228" s="4"/>
+    </row>
+    <row r="229" spans="2:4" s="6" customFormat="1">
+      <c r="B229" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="2:4" s="6" customFormat="1">
+      <c r="B230" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="2:4" s="6" customFormat="1">
+      <c r="B231" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D231" s="4"/>
+    </row>
+    <row r="232" spans="2:4" s="6" customFormat="1">
+      <c r="B232" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232" s="4"/>
+    </row>
+    <row r="233" spans="2:4" s="6" customFormat="1">
+      <c r="B233" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" s="4"/>
+    </row>
+    <row r="234" spans="2:4" s="6" customFormat="1">
+      <c r="B234" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234" s="4"/>
+    </row>
+    <row r="235" spans="2:4" s="6" customFormat="1">
+      <c r="B235" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D235" s="4"/>
+    </row>
+    <row r="236" spans="2:4" s="6" customFormat="1">
+      <c r="B236" s="20"/>
+      <c r="C236" s="7"/>
+      <c r="D236" s="4"/>
+    </row>
+    <row r="237" spans="2:4" s="6" customFormat="1">
+      <c r="B237" s="20"/>
+      <c r="C237" s="7"/>
+      <c r="D237" s="4"/>
+    </row>
+    <row r="238" spans="2:4" s="6" customFormat="1">
+      <c r="B238" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D238" s="4"/>
+    </row>
+    <row r="239" spans="2:4" s="6" customFormat="1">
+      <c r="B239" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" s="4"/>
+    </row>
+    <row r="240" spans="2:4" s="6" customFormat="1">
+      <c r="B240" s="20"/>
+      <c r="C240" s="7"/>
+      <c r="D240" s="4"/>
+    </row>
+    <row r="241" spans="2:4" s="6" customFormat="1">
+      <c r="B241" s="20"/>
+      <c r="C241" s="7"/>
+      <c r="D241" s="4"/>
+    </row>
+    <row r="242" spans="2:4" s="6" customFormat="1">
+      <c r="B242" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D242" s="4"/>
+    </row>
+    <row r="243" spans="2:4" s="6" customFormat="1">
+      <c r="B243" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D243" s="4"/>
+    </row>
+    <row r="244" spans="2:4" s="6" customFormat="1">
+      <c r="B244" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D244" s="4"/>
+    </row>
+    <row r="245" spans="2:4" s="6" customFormat="1">
+      <c r="B245" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D245" s="4"/>
+    </row>
+    <row r="246" spans="2:4" s="6" customFormat="1">
+      <c r="B246" s="22"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="2:4" s="6" customFormat="1">
+      <c r="B247" s="22"/>
+      <c r="C247" s="7"/>
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="2:4" s="6" customFormat="1">
+      <c r="B248" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D248" s="4"/>
+    </row>
+    <row r="249" spans="2:4" s="6" customFormat="1">
+      <c r="B249" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="2:4" s="6" customFormat="1">
+      <c r="B250" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D250" s="4"/>
+    </row>
+    <row r="251" spans="2:4" s="6" customFormat="1">
+      <c r="B251" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D251" s="4"/>
+    </row>
+    <row r="252" spans="2:4" s="6" customFormat="1">
+      <c r="B252" s="43"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+    </row>
+    <row r="253" spans="2:4" s="6" customFormat="1">
+      <c r="B253" s="21"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+    </row>
+    <row r="254" spans="2:4" s="6" customFormat="1">
+      <c r="B254" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C228" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D228" s="4"/>
-    </row>
-    <row r="229" spans="1:4" s="6" customFormat="1">
-      <c r="B229" s="22" t="s">
+      <c r="C254" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D254" s="4"/>
+    </row>
+    <row r="255" spans="2:4" s="6" customFormat="1">
+      <c r="B255" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C229" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D229" s="4"/>
-    </row>
-    <row r="230" spans="1:4" s="6" customFormat="1">
-      <c r="B230" s="22" t="s">
+      <c r="C255" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D255" s="4"/>
+    </row>
+    <row r="256" spans="2:4" s="6" customFormat="1">
+      <c r="B256" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C230" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D230" s="4"/>
-    </row>
-    <row r="231" spans="1:4" s="6" customFormat="1">
-      <c r="B231" s="22"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
-    </row>
-    <row r="232" spans="1:4" s="6" customFormat="1">
-      <c r="B232" s="19"/>
-      <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
-    </row>
-    <row r="233" spans="1:4" s="6" customFormat="1">
-      <c r="B233" s="21"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
-    </row>
-    <row r="234" spans="1:4" s="6" customFormat="1">
-      <c r="B234" s="21"/>
-      <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="3"/>
-      <c r="B235" s="11"/>
-      <c r="C235" s="11"/>
-      <c r="D235" s="3"/>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="3"/>
-      <c r="B236" s="8" t="s">
+      <c r="C256" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D256" s="4"/>
+    </row>
+    <row r="257" spans="1:4" s="6" customFormat="1">
+      <c r="B257" s="22"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+    </row>
+    <row r="258" spans="1:4" s="6" customFormat="1">
+      <c r="B258" s="19"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+    </row>
+    <row r="259" spans="1:4" s="6" customFormat="1">
+      <c r="B259" s="21"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+    </row>
+    <row r="260" spans="1:4" s="6" customFormat="1">
+      <c r="B260" s="21"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="3"/>
+      <c r="B261" s="11"/>
+      <c r="C261" s="11"/>
+      <c r="D261" s="3"/>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="3"/>
+      <c r="B262" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C236" s="6">
-        <f>COUNTIF(C5:C235,"y")</f>
-        <v>12</v>
-      </c>
-      <c r="D236" s="2"/>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="3"/>
-      <c r="B237" s="8" t="s">
+      <c r="C262" s="6">
+        <f>COUNTIF(C5:C261,"y")</f>
+        <v>21</v>
+      </c>
+      <c r="D262" s="2"/>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="3"/>
+      <c r="B263" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C237" s="6">
-        <f>COUNTIF(C5:C235,"n")</f>
-        <v>170</v>
-      </c>
-      <c r="D237" s="2"/>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="3"/>
-      <c r="B238" s="8" t="s">
+      <c r="C263" s="6">
+        <f>COUNTIF(C5:C261,"n")</f>
+        <v>172</v>
+      </c>
+      <c r="D263" s="2"/>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="3"/>
+      <c r="B264" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C238" s="7">
-        <f>COUNTIF(C5:C235,"TBD")</f>
+      <c r="C264" s="7">
+        <f>COUNTIF(C5:C261,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D238" s="2"/>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="3"/>
-      <c r="B239" s="8" t="s">
+      <c r="D264" s="2"/>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="3"/>
+      <c r="B265" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C239">
-        <f>SUM(C236:C238)</f>
-        <v>182</v>
-      </c>
-      <c r="D239" s="2"/>
-    </row>
-    <row r="240" spans="1:4" ht="18">
-      <c r="A240" s="3"/>
-      <c r="B240" s="10"/>
-      <c r="C240" s="10" t="s">
+      <c r="C265">
+        <f>SUM(C262:C264)</f>
+        <v>193</v>
+      </c>
+      <c r="D265" s="2"/>
+    </row>
+    <row r="266" spans="1:4" ht="18">
+      <c r="A266" s="3"/>
+      <c r="B266" s="10"/>
+      <c r="C266" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D240" s="41">
-        <f>C236/(C237+C236 + C238)</f>
-        <v>6.5934065934065936E-2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="3"/>
-      <c r="B241" s="11"/>
-      <c r="C241" s="11"/>
-      <c r="D241" s="3"/>
+      <c r="D266" s="41">
+        <f>C262/(C263+C262 + C264)</f>
+        <v>0.10880829015544041</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="3"/>
+      <c r="B267" s="11"/>
+      <c r="C267" s="11"/>
+      <c r="D267" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C134 C137:C64989">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C163:C65015 C1:C3 C6:C141">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="equal">
       <formula>"n"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:C148">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4500,12 +4456,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT863"/>
+  <dimension ref="A1:IT864"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4526,7 +4482,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="37" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -4742,7 +4698,7 @@
     </row>
     <row r="48" spans="1:11" s="6" customFormat="1">
       <c r="A48" s="12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
@@ -4764,9 +4720,9 @@
       </c>
       <c r="K48" s="32"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:11" s="6" customFormat="1">
       <c r="A49" s="12" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B49" s="4">
         <v>12</v>
@@ -4781,108 +4737,123 @@
         <v>0</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G49" s="30">
         <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
         <v>6.5934065934065936E-2</v>
       </c>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="12"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="30"/>
+      <c r="K49" s="32"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="4">
+        <v>21</v>
+      </c>
+      <c r="C50" s="4">
+        <v>172</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50" s="30">
+        <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
+        <v>0.10880829015544041</v>
+      </c>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:11">
       <c r="A51" s="12"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="31"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="30"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="14" t="s">
+    <row r="52" spans="1:11">
+      <c r="A52" s="12"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D53" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E53" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F53" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="38">
-        <f>MIN(G49)</f>
-        <v>6.5934065934065936E-2</v>
-      </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="39">
-        <f>SUM(B53:D53)</f>
-        <v>182</v>
-      </c>
-      <c r="B53" s="15">
-        <f>Features!C236</f>
-        <v>12</v>
-      </c>
-      <c r="C53" s="16">
-        <f>Features!C237</f>
-        <v>170</v>
-      </c>
-      <c r="D53" s="17">
-        <f>Features!C238</f>
+      <c r="G53" s="38">
+        <f>MIN(G50)</f>
+        <v>0.10880829015544041</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="39">
+        <f>SUM(B54:D54)</f>
+        <v>193</v>
+      </c>
+      <c r="B54" s="15">
+        <f>Features!C262</f>
+        <v>21</v>
+      </c>
+      <c r="C54" s="16">
+        <f>Features!C263</f>
+        <v>172</v>
+      </c>
+      <c r="D54" s="17">
+        <f>Features!C264</f>
         <v>0</v>
       </c>
-      <c r="E53" s="18">
-        <f>MIN(E49)</f>
+      <c r="E54" s="18">
+        <f>MIN(E50)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="4"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="30"/>
       <c r="H54" s="7"/>
-      <c r="J54" s="36"/>
-    </row>
-    <row r="55" spans="1:10">
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="30"/>
       <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="J55" s="36"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="4"/>
-      <c r="B56" s="19"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -4890,9 +4861,9 @@
       <c r="G56" s="30"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:11">
       <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -4900,7 +4871,7 @@
       <c r="G57" s="30"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:11">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -4910,9 +4881,9 @@
       <c r="G58" s="30"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:11">
       <c r="A59" s="4"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -4920,7 +4891,7 @@
       <c r="G59" s="30"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:11">
       <c r="A60" s="4"/>
       <c r="B60" s="19"/>
       <c r="C60" s="4"/>
@@ -4930,9 +4901,9 @@
       <c r="G60" s="30"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:11">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -4940,7 +4911,7 @@
       <c r="G61" s="30"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:11">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -4950,9 +4921,9 @@
       <c r="G62" s="30"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:11">
       <c r="A63" s="4"/>
-      <c r="B63" s="7"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -4960,9 +4931,9 @@
       <c r="G63" s="30"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:11">
       <c r="A64" s="4"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -4981,7 +4952,7 @@
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="7"/>
+      <c r="A66" s="4"/>
       <c r="B66" s="20"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
@@ -4992,7 +4963,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -5123,7 +5094,7 @@
     <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
+      <c r="C80" s="4"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -5132,7 +5103,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="7"/>
-      <c r="B81" s="6"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -5140,15 +5111,15 @@
       <c r="G81" s="30"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="4"/>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1">
       <c r="A83" s="4"/>
@@ -5322,7 +5293,7 @@
     </row>
     <row r="100" spans="1:8" s="2" customFormat="1">
       <c r="A100" s="4"/>
-      <c r="B100" s="6"/>
+      <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -5332,7 +5303,7 @@
     </row>
     <row r="101" spans="1:8" s="2" customFormat="1">
       <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -5362,7 +5333,7 @@
     </row>
     <row r="104" spans="1:8" s="2" customFormat="1">
       <c r="A104" s="4"/>
-      <c r="B104" s="19"/>
+      <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -5402,7 +5373,7 @@
     </row>
     <row r="108" spans="1:8" s="2" customFormat="1">
       <c r="A108" s="4"/>
-      <c r="B108" s="21"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -5412,7 +5383,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -5422,7 +5393,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="6"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -5432,7 +5403,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -5442,7 +5413,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="19"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -5462,7 +5433,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -5522,7 +5493,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="19"/>
+      <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -5622,7 +5593,7 @@
     </row>
     <row r="130" spans="1:254" s="2" customFormat="1">
       <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -5672,7 +5643,7 @@
     </row>
     <row r="135" spans="1:254" s="2" customFormat="1">
       <c r="A135" s="4"/>
-      <c r="B135" s="19"/>
+      <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -5692,7 +5663,7 @@
     </row>
     <row r="137" spans="1:254" s="2" customFormat="1">
       <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -5731,284 +5702,284 @@
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:254" s="2" customFormat="1">
-      <c r="A141" s="21"/>
-      <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="35"/>
-      <c r="H141" s="21"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
-      <c r="O141" s="5"/>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5"/>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="5"/>
-      <c r="U141" s="5"/>
-      <c r="V141" s="5"/>
-      <c r="W141" s="5"/>
-      <c r="X141" s="5"/>
-      <c r="Y141" s="5"/>
-      <c r="Z141" s="5"/>
-      <c r="AA141" s="5"/>
-      <c r="AB141" s="5"/>
-      <c r="AC141" s="5"/>
-      <c r="AD141" s="5"/>
-      <c r="AE141" s="5"/>
-      <c r="AF141" s="5"/>
-      <c r="AG141" s="5"/>
-      <c r="AH141" s="5"/>
-      <c r="AI141" s="5"/>
-      <c r="AJ141" s="5"/>
-      <c r="AK141" s="5"/>
-      <c r="AL141" s="5"/>
-      <c r="AM141" s="5"/>
-      <c r="AN141" s="5"/>
-      <c r="AO141" s="5"/>
-      <c r="AP141" s="5"/>
-      <c r="AQ141" s="5"/>
-      <c r="AR141" s="5"/>
-      <c r="AS141" s="5"/>
-      <c r="AT141" s="5"/>
-      <c r="AU141" s="5"/>
-      <c r="AV141" s="5"/>
-      <c r="AW141" s="5"/>
-      <c r="AX141" s="5"/>
-      <c r="AY141" s="5"/>
-      <c r="AZ141" s="5"/>
-      <c r="BA141" s="5"/>
-      <c r="BB141" s="5"/>
-      <c r="BC141" s="5"/>
-      <c r="BD141" s="5"/>
-      <c r="BE141" s="5"/>
-      <c r="BF141" s="5"/>
-      <c r="BG141" s="5"/>
-      <c r="BH141" s="5"/>
-      <c r="BI141" s="5"/>
-      <c r="BJ141" s="5"/>
-      <c r="BK141" s="5"/>
-      <c r="BL141" s="5"/>
-      <c r="BM141" s="5"/>
-      <c r="BN141" s="5"/>
-      <c r="BO141" s="5"/>
-      <c r="BP141" s="5"/>
-      <c r="BQ141" s="5"/>
-      <c r="BR141" s="5"/>
-      <c r="BS141" s="5"/>
-      <c r="BT141" s="5"/>
-      <c r="BU141" s="5"/>
-      <c r="BV141" s="5"/>
-      <c r="BW141" s="5"/>
-      <c r="BX141" s="5"/>
-      <c r="BY141" s="5"/>
-      <c r="BZ141" s="5"/>
-      <c r="CA141" s="5"/>
-      <c r="CB141" s="5"/>
-      <c r="CC141" s="5"/>
-      <c r="CD141" s="5"/>
-      <c r="CE141" s="5"/>
-      <c r="CF141" s="5"/>
-      <c r="CG141" s="5"/>
-      <c r="CH141" s="5"/>
-      <c r="CI141" s="5"/>
-      <c r="CJ141" s="5"/>
-      <c r="CK141" s="5"/>
-      <c r="CL141" s="5"/>
-      <c r="CM141" s="5"/>
-      <c r="CN141" s="5"/>
-      <c r="CO141" s="5"/>
-      <c r="CP141" s="5"/>
-      <c r="CQ141" s="5"/>
-      <c r="CR141" s="5"/>
-      <c r="CS141" s="5"/>
-      <c r="CT141" s="5"/>
-      <c r="CU141" s="5"/>
-      <c r="CV141" s="5"/>
-      <c r="CW141" s="5"/>
-      <c r="CX141" s="5"/>
-      <c r="CY141" s="5"/>
-      <c r="CZ141" s="5"/>
-      <c r="DA141" s="5"/>
-      <c r="DB141" s="5"/>
-      <c r="DC141" s="5"/>
-      <c r="DD141" s="5"/>
-      <c r="DE141" s="5"/>
-      <c r="DF141" s="5"/>
-      <c r="DG141" s="5"/>
-      <c r="DH141" s="5"/>
-      <c r="DI141" s="5"/>
-      <c r="DJ141" s="5"/>
-      <c r="DK141" s="5"/>
-      <c r="DL141" s="5"/>
-      <c r="DM141" s="5"/>
-      <c r="DN141" s="5"/>
-      <c r="DO141" s="5"/>
-      <c r="DP141" s="5"/>
-      <c r="DQ141" s="5"/>
-      <c r="DR141" s="5"/>
-      <c r="DS141" s="5"/>
-      <c r="DT141" s="5"/>
-      <c r="DU141" s="5"/>
-      <c r="DV141" s="5"/>
-      <c r="DW141" s="5"/>
-      <c r="DX141" s="5"/>
-      <c r="DY141" s="5"/>
-      <c r="DZ141" s="5"/>
-      <c r="EA141" s="5"/>
-      <c r="EB141" s="5"/>
-      <c r="EC141" s="5"/>
-      <c r="ED141" s="5"/>
-      <c r="EE141" s="5"/>
-      <c r="EF141" s="5"/>
-      <c r="EG141" s="5"/>
-      <c r="EH141" s="5"/>
-      <c r="EI141" s="5"/>
-      <c r="EJ141" s="5"/>
-      <c r="EK141" s="5"/>
-      <c r="EL141" s="5"/>
-      <c r="EM141" s="5"/>
-      <c r="EN141" s="5"/>
-      <c r="EO141" s="5"/>
-      <c r="EP141" s="5"/>
-      <c r="EQ141" s="5"/>
-      <c r="ER141" s="5"/>
-      <c r="ES141" s="5"/>
-      <c r="ET141" s="5"/>
-      <c r="EU141" s="5"/>
-      <c r="EV141" s="5"/>
-      <c r="EW141" s="5"/>
-      <c r="EX141" s="5"/>
-      <c r="EY141" s="5"/>
-      <c r="EZ141" s="5"/>
-      <c r="FA141" s="5"/>
-      <c r="FB141" s="5"/>
-      <c r="FC141" s="5"/>
-      <c r="FD141" s="5"/>
-      <c r="FE141" s="5"/>
-      <c r="FF141" s="5"/>
-      <c r="FG141" s="5"/>
-      <c r="FH141" s="5"/>
-      <c r="FI141" s="5"/>
-      <c r="FJ141" s="5"/>
-      <c r="FK141" s="5"/>
-      <c r="FL141" s="5"/>
-      <c r="FM141" s="5"/>
-      <c r="FN141" s="5"/>
-      <c r="FO141" s="5"/>
-      <c r="FP141" s="5"/>
-      <c r="FQ141" s="5"/>
-      <c r="FR141" s="5"/>
-      <c r="FS141" s="5"/>
-      <c r="FT141" s="5"/>
-      <c r="FU141" s="5"/>
-      <c r="FV141" s="5"/>
-      <c r="FW141" s="5"/>
-      <c r="FX141" s="5"/>
-      <c r="FY141" s="5"/>
-      <c r="FZ141" s="5"/>
-      <c r="GA141" s="5"/>
-      <c r="GB141" s="5"/>
-      <c r="GC141" s="5"/>
-      <c r="GD141" s="5"/>
-      <c r="GE141" s="5"/>
-      <c r="GF141" s="5"/>
-      <c r="GG141" s="5"/>
-      <c r="GH141" s="5"/>
-      <c r="GI141" s="5"/>
-      <c r="GJ141" s="5"/>
-      <c r="GK141" s="5"/>
-      <c r="GL141" s="5"/>
-      <c r="GM141" s="5"/>
-      <c r="GN141" s="5"/>
-      <c r="GO141" s="5"/>
-      <c r="GP141" s="5"/>
-      <c r="GQ141" s="5"/>
-      <c r="GR141" s="5"/>
-      <c r="GS141" s="5"/>
-      <c r="GT141" s="5"/>
-      <c r="GU141" s="5"/>
-      <c r="GV141" s="5"/>
-      <c r="GW141" s="5"/>
-      <c r="GX141" s="5"/>
-      <c r="GY141" s="5"/>
-      <c r="GZ141" s="5"/>
-      <c r="HA141" s="5"/>
-      <c r="HB141" s="5"/>
-      <c r="HC141" s="5"/>
-      <c r="HD141" s="5"/>
-      <c r="HE141" s="5"/>
-      <c r="HF141" s="5"/>
-      <c r="HG141" s="5"/>
-      <c r="HH141" s="5"/>
-      <c r="HI141" s="5"/>
-      <c r="HJ141" s="5"/>
-      <c r="HK141" s="5"/>
-      <c r="HL141" s="5"/>
-      <c r="HM141" s="5"/>
-      <c r="HN141" s="5"/>
-      <c r="HO141" s="5"/>
-      <c r="HP141" s="5"/>
-      <c r="HQ141" s="5"/>
-      <c r="HR141" s="5"/>
-      <c r="HS141" s="5"/>
-      <c r="HT141" s="5"/>
-      <c r="HU141" s="5"/>
-      <c r="HV141" s="5"/>
-      <c r="HW141" s="5"/>
-      <c r="HX141" s="5"/>
-      <c r="HY141" s="5"/>
-      <c r="HZ141" s="5"/>
-      <c r="IA141" s="5"/>
-      <c r="IB141" s="5"/>
-      <c r="IC141" s="5"/>
-      <c r="ID141" s="5"/>
-      <c r="IE141" s="5"/>
-      <c r="IF141" s="5"/>
-      <c r="IG141" s="5"/>
-      <c r="IH141" s="5"/>
-      <c r="II141" s="5"/>
-      <c r="IJ141" s="5"/>
-      <c r="IK141" s="5"/>
-      <c r="IL141" s="5"/>
-      <c r="IM141" s="5"/>
-      <c r="IN141" s="5"/>
-      <c r="IO141" s="5"/>
-      <c r="IP141" s="5"/>
-      <c r="IQ141" s="5"/>
-      <c r="IR141" s="5"/>
-      <c r="IS141" s="5"/>
-      <c r="IT141" s="5"/>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:254" s="2" customFormat="1">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="34"/>
-      <c r="H142" s="4"/>
-    </row>
-    <row r="143" spans="1:254">
-      <c r="A143" s="7"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="7"/>
+      <c r="A142" s="21"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
+      <c r="Y142" s="5"/>
+      <c r="Z142" s="5"/>
+      <c r="AA142" s="5"/>
+      <c r="AB142" s="5"/>
+      <c r="AC142" s="5"/>
+      <c r="AD142" s="5"/>
+      <c r="AE142" s="5"/>
+      <c r="AF142" s="5"/>
+      <c r="AG142" s="5"/>
+      <c r="AH142" s="5"/>
+      <c r="AI142" s="5"/>
+      <c r="AJ142" s="5"/>
+      <c r="AK142" s="5"/>
+      <c r="AL142" s="5"/>
+      <c r="AM142" s="5"/>
+      <c r="AN142" s="5"/>
+      <c r="AO142" s="5"/>
+      <c r="AP142" s="5"/>
+      <c r="AQ142" s="5"/>
+      <c r="AR142" s="5"/>
+      <c r="AS142" s="5"/>
+      <c r="AT142" s="5"/>
+      <c r="AU142" s="5"/>
+      <c r="AV142" s="5"/>
+      <c r="AW142" s="5"/>
+      <c r="AX142" s="5"/>
+      <c r="AY142" s="5"/>
+      <c r="AZ142" s="5"/>
+      <c r="BA142" s="5"/>
+      <c r="BB142" s="5"/>
+      <c r="BC142" s="5"/>
+      <c r="BD142" s="5"/>
+      <c r="BE142" s="5"/>
+      <c r="BF142" s="5"/>
+      <c r="BG142" s="5"/>
+      <c r="BH142" s="5"/>
+      <c r="BI142" s="5"/>
+      <c r="BJ142" s="5"/>
+      <c r="BK142" s="5"/>
+      <c r="BL142" s="5"/>
+      <c r="BM142" s="5"/>
+      <c r="BN142" s="5"/>
+      <c r="BO142" s="5"/>
+      <c r="BP142" s="5"/>
+      <c r="BQ142" s="5"/>
+      <c r="BR142" s="5"/>
+      <c r="BS142" s="5"/>
+      <c r="BT142" s="5"/>
+      <c r="BU142" s="5"/>
+      <c r="BV142" s="5"/>
+      <c r="BW142" s="5"/>
+      <c r="BX142" s="5"/>
+      <c r="BY142" s="5"/>
+      <c r="BZ142" s="5"/>
+      <c r="CA142" s="5"/>
+      <c r="CB142" s="5"/>
+      <c r="CC142" s="5"/>
+      <c r="CD142" s="5"/>
+      <c r="CE142" s="5"/>
+      <c r="CF142" s="5"/>
+      <c r="CG142" s="5"/>
+      <c r="CH142" s="5"/>
+      <c r="CI142" s="5"/>
+      <c r="CJ142" s="5"/>
+      <c r="CK142" s="5"/>
+      <c r="CL142" s="5"/>
+      <c r="CM142" s="5"/>
+      <c r="CN142" s="5"/>
+      <c r="CO142" s="5"/>
+      <c r="CP142" s="5"/>
+      <c r="CQ142" s="5"/>
+      <c r="CR142" s="5"/>
+      <c r="CS142" s="5"/>
+      <c r="CT142" s="5"/>
+      <c r="CU142" s="5"/>
+      <c r="CV142" s="5"/>
+      <c r="CW142" s="5"/>
+      <c r="CX142" s="5"/>
+      <c r="CY142" s="5"/>
+      <c r="CZ142" s="5"/>
+      <c r="DA142" s="5"/>
+      <c r="DB142" s="5"/>
+      <c r="DC142" s="5"/>
+      <c r="DD142" s="5"/>
+      <c r="DE142" s="5"/>
+      <c r="DF142" s="5"/>
+      <c r="DG142" s="5"/>
+      <c r="DH142" s="5"/>
+      <c r="DI142" s="5"/>
+      <c r="DJ142" s="5"/>
+      <c r="DK142" s="5"/>
+      <c r="DL142" s="5"/>
+      <c r="DM142" s="5"/>
+      <c r="DN142" s="5"/>
+      <c r="DO142" s="5"/>
+      <c r="DP142" s="5"/>
+      <c r="DQ142" s="5"/>
+      <c r="DR142" s="5"/>
+      <c r="DS142" s="5"/>
+      <c r="DT142" s="5"/>
+      <c r="DU142" s="5"/>
+      <c r="DV142" s="5"/>
+      <c r="DW142" s="5"/>
+      <c r="DX142" s="5"/>
+      <c r="DY142" s="5"/>
+      <c r="DZ142" s="5"/>
+      <c r="EA142" s="5"/>
+      <c r="EB142" s="5"/>
+      <c r="EC142" s="5"/>
+      <c r="ED142" s="5"/>
+      <c r="EE142" s="5"/>
+      <c r="EF142" s="5"/>
+      <c r="EG142" s="5"/>
+      <c r="EH142" s="5"/>
+      <c r="EI142" s="5"/>
+      <c r="EJ142" s="5"/>
+      <c r="EK142" s="5"/>
+      <c r="EL142" s="5"/>
+      <c r="EM142" s="5"/>
+      <c r="EN142" s="5"/>
+      <c r="EO142" s="5"/>
+      <c r="EP142" s="5"/>
+      <c r="EQ142" s="5"/>
+      <c r="ER142" s="5"/>
+      <c r="ES142" s="5"/>
+      <c r="ET142" s="5"/>
+      <c r="EU142" s="5"/>
+      <c r="EV142" s="5"/>
+      <c r="EW142" s="5"/>
+      <c r="EX142" s="5"/>
+      <c r="EY142" s="5"/>
+      <c r="EZ142" s="5"/>
+      <c r="FA142" s="5"/>
+      <c r="FB142" s="5"/>
+      <c r="FC142" s="5"/>
+      <c r="FD142" s="5"/>
+      <c r="FE142" s="5"/>
+      <c r="FF142" s="5"/>
+      <c r="FG142" s="5"/>
+      <c r="FH142" s="5"/>
+      <c r="FI142" s="5"/>
+      <c r="FJ142" s="5"/>
+      <c r="FK142" s="5"/>
+      <c r="FL142" s="5"/>
+      <c r="FM142" s="5"/>
+      <c r="FN142" s="5"/>
+      <c r="FO142" s="5"/>
+      <c r="FP142" s="5"/>
+      <c r="FQ142" s="5"/>
+      <c r="FR142" s="5"/>
+      <c r="FS142" s="5"/>
+      <c r="FT142" s="5"/>
+      <c r="FU142" s="5"/>
+      <c r="FV142" s="5"/>
+      <c r="FW142" s="5"/>
+      <c r="FX142" s="5"/>
+      <c r="FY142" s="5"/>
+      <c r="FZ142" s="5"/>
+      <c r="GA142" s="5"/>
+      <c r="GB142" s="5"/>
+      <c r="GC142" s="5"/>
+      <c r="GD142" s="5"/>
+      <c r="GE142" s="5"/>
+      <c r="GF142" s="5"/>
+      <c r="GG142" s="5"/>
+      <c r="GH142" s="5"/>
+      <c r="GI142" s="5"/>
+      <c r="GJ142" s="5"/>
+      <c r="GK142" s="5"/>
+      <c r="GL142" s="5"/>
+      <c r="GM142" s="5"/>
+      <c r="GN142" s="5"/>
+      <c r="GO142" s="5"/>
+      <c r="GP142" s="5"/>
+      <c r="GQ142" s="5"/>
+      <c r="GR142" s="5"/>
+      <c r="GS142" s="5"/>
+      <c r="GT142" s="5"/>
+      <c r="GU142" s="5"/>
+      <c r="GV142" s="5"/>
+      <c r="GW142" s="5"/>
+      <c r="GX142" s="5"/>
+      <c r="GY142" s="5"/>
+      <c r="GZ142" s="5"/>
+      <c r="HA142" s="5"/>
+      <c r="HB142" s="5"/>
+      <c r="HC142" s="5"/>
+      <c r="HD142" s="5"/>
+      <c r="HE142" s="5"/>
+      <c r="HF142" s="5"/>
+      <c r="HG142" s="5"/>
+      <c r="HH142" s="5"/>
+      <c r="HI142" s="5"/>
+      <c r="HJ142" s="5"/>
+      <c r="HK142" s="5"/>
+      <c r="HL142" s="5"/>
+      <c r="HM142" s="5"/>
+      <c r="HN142" s="5"/>
+      <c r="HO142" s="5"/>
+      <c r="HP142" s="5"/>
+      <c r="HQ142" s="5"/>
+      <c r="HR142" s="5"/>
+      <c r="HS142" s="5"/>
+      <c r="HT142" s="5"/>
+      <c r="HU142" s="5"/>
+      <c r="HV142" s="5"/>
+      <c r="HW142" s="5"/>
+      <c r="HX142" s="5"/>
+      <c r="HY142" s="5"/>
+      <c r="HZ142" s="5"/>
+      <c r="IA142" s="5"/>
+      <c r="IB142" s="5"/>
+      <c r="IC142" s="5"/>
+      <c r="ID142" s="5"/>
+      <c r="IE142" s="5"/>
+      <c r="IF142" s="5"/>
+      <c r="IG142" s="5"/>
+      <c r="IH142" s="5"/>
+      <c r="II142" s="5"/>
+      <c r="IJ142" s="5"/>
+      <c r="IK142" s="5"/>
+      <c r="IL142" s="5"/>
+      <c r="IM142" s="5"/>
+      <c r="IN142" s="5"/>
+      <c r="IO142" s="5"/>
+      <c r="IP142" s="5"/>
+      <c r="IQ142" s="5"/>
+      <c r="IR142" s="5"/>
+      <c r="IS142" s="5"/>
+      <c r="IT142" s="5"/>
+    </row>
+    <row r="143" spans="1:254" s="2" customFormat="1">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:254">
       <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
+      <c r="B144" s="6"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
@@ -6018,7 +5989,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="7"/>
-      <c r="B145" s="20"/>
+      <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -6028,7 +5999,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -6039,7 +6010,7 @@
     <row r="147" spans="1:8">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
-      <c r="C147" s="4"/>
+      <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
@@ -6079,7 +6050,7 @@
     <row r="151" spans="1:8">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
+      <c r="C151" s="4"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
@@ -6088,7 +6059,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="7"/>
-      <c r="B152" s="22"/>
+      <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -6108,7 +6079,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -6118,7 +6089,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="7"/>
-      <c r="B155" s="20"/>
+      <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -6138,7 +6109,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -6158,7 +6129,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="7"/>
-      <c r="B159" s="20"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -6178,7 +6149,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -6198,7 +6169,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="20"/>
+      <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -6218,7 +6189,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -6258,7 +6229,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="7"/>
-      <c r="B169" s="6"/>
+      <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -6268,8 +6239,8 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
@@ -6278,7 +6249,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="19"/>
+      <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -6348,7 +6319,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="7"/>
-      <c r="B178" s="4"/>
+      <c r="B178" s="19"/>
       <c r="C178" s="4"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -6358,7 +6329,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="19"/>
+      <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -6368,7 +6339,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="21"/>
+      <c r="B180" s="19"/>
       <c r="C180" s="4"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -6388,7 +6359,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="19"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="4"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -6429,7 +6400,7 @@
     <row r="186" spans="1:8">
       <c r="A186" s="7"/>
       <c r="B186" s="19"/>
-      <c r="C186" s="7"/>
+      <c r="C186" s="4"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
@@ -6438,7 +6409,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
-      <c r="B187" s="4"/>
+      <c r="B187" s="19"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -6458,7 +6429,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="19"/>
+      <c r="B189" s="4"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -6518,7 +6489,7 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="7"/>
-      <c r="B195" s="21"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -6558,7 +6529,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="7"/>
-      <c r="B199" s="4"/>
+      <c r="B199" s="21"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -6568,7 +6539,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="6"/>
+      <c r="B200" s="4"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -6578,7 +6549,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="4"/>
+      <c r="B201" s="6"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -6588,7 +6559,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="19"/>
+      <c r="B202" s="4"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -6638,7 +6609,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
-      <c r="B207" s="21"/>
+      <c r="B207" s="19"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -6648,7 +6619,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="19"/>
+      <c r="B208" s="21"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -6698,7 +6669,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="7"/>
-      <c r="B213" s="21"/>
+      <c r="B213" s="19"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -6758,7 +6729,7 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="7"/>
-      <c r="B219" s="4"/>
+      <c r="B219" s="21"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -6768,7 +6739,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="6"/>
+      <c r="B220" s="4"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -6778,8 +6749,8 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
@@ -6788,7 +6759,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="19"/>
+      <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -6798,7 +6769,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="7"/>
+      <c r="B223" s="19"/>
       <c r="C223" s="4"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -6808,7 +6779,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="20"/>
+      <c r="B224" s="7"/>
       <c r="C224" s="4"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -6848,7 +6819,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="4"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -6858,7 +6829,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="20"/>
+      <c r="B229" s="7"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -6868,7 +6839,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="23"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -6888,7 +6859,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="20"/>
+      <c r="B232" s="23"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -6928,7 +6899,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="4"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -6938,7 +6909,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="20"/>
+      <c r="B237" s="7"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -6988,7 +6959,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="7"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -6998,8 +6969,8 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="20"/>
-      <c r="C243" s="7"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
       <c r="F243" s="7"/>
@@ -7008,7 +6979,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -7018,7 +6989,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="20"/>
+      <c r="B245" s="7"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -7028,7 +6999,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="23"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -7078,8 +7049,8 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="20"/>
-      <c r="C251" s="4"/>
+      <c r="B251" s="23"/>
+      <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
@@ -7088,7 +7059,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="23"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="4"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -7098,7 +7069,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="24"/>
+      <c r="B253" s="23"/>
       <c r="C253" s="4"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -7126,9 +7097,9 @@
       <c r="G255" s="30"/>
       <c r="H255" s="7"/>
     </row>
-    <row r="256" spans="1:8" ht="11.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="25"/>
+      <c r="B256" s="24"/>
       <c r="C256" s="4"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -7136,9 +7107,9 @@
       <c r="G256" s="30"/>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" ht="11.25">
       <c r="A257" s="7"/>
-      <c r="B257" s="23"/>
+      <c r="B257" s="25"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -7178,7 +7149,7 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="7"/>
-      <c r="B261" s="24"/>
+      <c r="B261" s="23"/>
       <c r="C261" s="4"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -7208,7 +7179,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="7"/>
-      <c r="B264" s="23"/>
+      <c r="B264" s="24"/>
       <c r="C264" s="4"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -7218,7 +7189,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="24"/>
+      <c r="B265" s="23"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -7226,15 +7197,15 @@
       <c r="G265" s="30"/>
       <c r="H265" s="7"/>
     </row>
-    <row r="266" spans="1:8" s="2" customFormat="1">
-      <c r="A266" s="4"/>
+    <row r="266" spans="1:8">
+      <c r="A266" s="7"/>
       <c r="B266" s="24"/>
       <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
-      <c r="E266" s="4"/>
-      <c r="F266" s="4"/>
-      <c r="G266" s="34"/>
-      <c r="H266" s="4"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="7"/>
+      <c r="F266" s="7"/>
+      <c r="G266" s="30"/>
+      <c r="H266" s="7"/>
     </row>
     <row r="267" spans="1:8" s="2" customFormat="1">
       <c r="A267" s="4"/>
@@ -7246,19 +7217,19 @@
       <c r="G267" s="34"/>
       <c r="H267" s="4"/>
     </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="7"/>
+    <row r="268" spans="1:8" s="2" customFormat="1">
+      <c r="A268" s="4"/>
       <c r="B268" s="24"/>
       <c r="C268" s="4"/>
-      <c r="D268" s="7"/>
-      <c r="E268" s="7"/>
-      <c r="F268" s="7"/>
-      <c r="G268" s="30"/>
-      <c r="H268" s="7"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4"/>
+      <c r="F268" s="4"/>
+      <c r="G268" s="34"/>
+      <c r="H268" s="4"/>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="7"/>
-      <c r="B269" s="23"/>
+      <c r="B269" s="24"/>
       <c r="C269" s="4"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -7268,7 +7239,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="24"/>
+      <c r="B270" s="23"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -7298,7 +7269,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
-      <c r="B273" s="22"/>
+      <c r="B273" s="24"/>
       <c r="C273" s="4"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -7308,7 +7279,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="7"/>
+      <c r="B274" s="22"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -7328,7 +7299,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="20"/>
+      <c r="B276" s="7"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -7348,7 +7319,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="7"/>
+      <c r="B278" s="20"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -7379,7 +7350,7 @@
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
-      <c r="C281" s="7"/>
+      <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
@@ -7388,7 +7359,7 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
-      <c r="B282" s="6"/>
+      <c r="B282" s="7"/>
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -7398,7 +7369,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="7"/>
+      <c r="B283" s="6"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -7478,7 +7449,7 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="7"/>
-      <c r="B291" s="6"/>
+      <c r="B291" s="7"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
@@ -7488,8 +7459,8 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
+      <c r="B292" s="6"/>
+      <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
       <c r="F292" s="7"/>
@@ -7498,7 +7469,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="19"/>
+      <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
@@ -7528,7 +7499,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="4"/>
+      <c r="B296" s="19"/>
       <c r="C296" s="4"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -7588,7 +7559,7 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="7"/>
-      <c r="B302" s="19"/>
+      <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
@@ -7608,7 +7579,7 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="7"/>
-      <c r="B304" s="21"/>
+      <c r="B304" s="19"/>
       <c r="C304" s="4"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -7618,8 +7589,8 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="7"/>
-      <c r="C305" s="7"/>
+      <c r="B305" s="21"/>
+      <c r="C305" s="4"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
       <c r="F305" s="7"/>
@@ -7628,7 +7599,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="6"/>
+      <c r="B306" s="7"/>
       <c r="C306" s="7"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
@@ -7636,15 +7607,15 @@
       <c r="G306" s="30"/>
       <c r="H306" s="7"/>
     </row>
-    <row r="307" spans="1:8" s="2" customFormat="1">
-      <c r="A307" s="4"/>
-      <c r="B307" s="4"/>
-      <c r="C307" s="9"/>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4"/>
-      <c r="F307" s="4"/>
-      <c r="G307" s="34"/>
-      <c r="H307" s="4"/>
+    <row r="307" spans="1:8">
+      <c r="A307" s="7"/>
+      <c r="B307" s="6"/>
+      <c r="C307" s="7"/>
+      <c r="D307" s="7"/>
+      <c r="E307" s="7"/>
+      <c r="F307" s="7"/>
+      <c r="G307" s="30"/>
+      <c r="H307" s="7"/>
     </row>
     <row r="308" spans="1:8" s="2" customFormat="1">
       <c r="A308" s="4"/>
@@ -7668,7 +7639,7 @@
     </row>
     <row r="310" spans="1:8" s="2" customFormat="1">
       <c r="A310" s="4"/>
-      <c r="B310" s="19"/>
+      <c r="B310" s="4"/>
       <c r="C310" s="9"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -7718,8 +7689,8 @@
     </row>
     <row r="315" spans="1:8" s="2" customFormat="1">
       <c r="A315" s="4"/>
-      <c r="B315" s="26"/>
-      <c r="C315" s="4"/>
+      <c r="B315" s="19"/>
+      <c r="C315" s="9"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
@@ -7768,7 +7739,7 @@
     </row>
     <row r="320" spans="1:8" s="2" customFormat="1">
       <c r="A320" s="4"/>
-      <c r="B320" s="21"/>
+      <c r="B320" s="26"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -7818,7 +7789,7 @@
     </row>
     <row r="325" spans="1:8" s="2" customFormat="1">
       <c r="A325" s="4"/>
-      <c r="B325" s="19"/>
+      <c r="B325" s="21"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -7828,7 +7799,7 @@
     </row>
     <row r="326" spans="1:8" s="2" customFormat="1">
       <c r="A326" s="4"/>
-      <c r="B326" s="21"/>
+      <c r="B326" s="19"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -7838,7 +7809,7 @@
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1">
       <c r="A327" s="4"/>
-      <c r="B327" s="4"/>
+      <c r="B327" s="21"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -7846,20 +7817,20 @@
       <c r="G327" s="34"/>
       <c r="H327" s="4"/>
     </row>
-    <row r="328" spans="1:8">
-      <c r="A328" s="7"/>
-      <c r="B328" s="6"/>
-      <c r="C328" s="7"/>
-      <c r="D328" s="7"/>
-      <c r="E328" s="7"/>
-      <c r="F328" s="7"/>
-      <c r="G328" s="30"/>
-      <c r="H328" s="7"/>
+    <row r="328" spans="1:8" s="2" customFormat="1">
+      <c r="A328" s="4"/>
+      <c r="B328" s="4"/>
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
+      <c r="E328" s="4"/>
+      <c r="F328" s="4"/>
+      <c r="G328" s="34"/>
+      <c r="H328" s="4"/>
     </row>
     <row r="329" spans="1:8">
       <c r="A329" s="7"/>
-      <c r="B329" s="7"/>
-      <c r="C329" s="4"/>
+      <c r="B329" s="6"/>
+      <c r="C329" s="7"/>
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
@@ -7928,7 +7899,7 @@
     </row>
     <row r="336" spans="1:8">
       <c r="A336" s="7"/>
-      <c r="B336" s="4"/>
+      <c r="B336" s="7"/>
       <c r="C336" s="4"/>
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
@@ -7939,7 +7910,7 @@
     <row r="337" spans="1:8">
       <c r="A337" s="7"/>
       <c r="B337" s="4"/>
-      <c r="C337" s="7"/>
+      <c r="C337" s="4"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
@@ -7948,7 +7919,7 @@
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="7"/>
-      <c r="B338" s="6"/>
+      <c r="B338" s="4"/>
       <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
@@ -7958,7 +7929,7 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
-      <c r="B339" s="7"/>
+      <c r="B339" s="6"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
@@ -7968,7 +7939,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
-      <c r="B340" s="22"/>
+      <c r="B340" s="7"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
@@ -7978,7 +7949,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="7"/>
+      <c r="B341" s="22"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -8018,7 +7989,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
-      <c r="B345" s="6"/>
+      <c r="B345" s="7"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -8028,7 +7999,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="7"/>
+      <c r="B346" s="6"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -8038,7 +8009,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="20"/>
+      <c r="B347" s="7"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -8068,7 +8039,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="22"/>
+      <c r="B350" s="20"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -8078,7 +8049,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="20"/>
+      <c r="B351" s="22"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -8098,7 +8069,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="22"/>
+      <c r="B353" s="20"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -8108,7 +8079,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="20"/>
+      <c r="B354" s="22"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -8118,7 +8089,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="22"/>
+      <c r="B355" s="20"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -8128,7 +8099,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="20"/>
+      <c r="B356" s="22"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -8158,7 +8129,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="7"/>
+      <c r="B359" s="20"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -8168,7 +8139,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="27"/>
+      <c r="B360" s="7"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -8178,7 +8149,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="22"/>
+      <c r="B361" s="27"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -8188,8 +8159,8 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="7"/>
-      <c r="C362" s="4"/>
+      <c r="B362" s="22"/>
+      <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
@@ -8198,7 +8169,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="20"/>
+      <c r="B363" s="7"/>
       <c r="C363" s="4"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -8228,7 +8199,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="7"/>
+      <c r="B366" s="20"/>
       <c r="C366" s="4"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -8258,7 +8229,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="20"/>
+      <c r="B369" s="7"/>
       <c r="C369" s="4"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -8278,8 +8249,8 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="7"/>
-      <c r="C371" s="7"/>
+      <c r="B371" s="20"/>
+      <c r="C371" s="4"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
@@ -8288,7 +8259,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="6"/>
+      <c r="B372" s="7"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -8298,7 +8269,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="7"/>
+      <c r="B373" s="6"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -8358,7 +8329,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="6"/>
+      <c r="B379" s="7"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -8368,7 +8339,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="7"/>
+      <c r="B380" s="6"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -8389,7 +8360,7 @@
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
       <c r="B382" s="7"/>
-      <c r="C382" s="4"/>
+      <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
@@ -8398,7 +8369,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="20"/>
+      <c r="B383" s="7"/>
       <c r="C383" s="4"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -8409,7 +8380,7 @@
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
       <c r="B384" s="20"/>
-      <c r="C384" s="7"/>
+      <c r="C384" s="4"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
@@ -8418,7 +8389,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="27"/>
+      <c r="B385" s="20"/>
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -8428,7 +8399,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="22"/>
+      <c r="B386" s="27"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -8478,7 +8449,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="7"/>
+      <c r="B391" s="22"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -8488,7 +8459,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="6"/>
+      <c r="B392" s="7"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -8498,7 +8469,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="7"/>
+      <c r="B393" s="6"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -8508,7 +8479,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="20"/>
+      <c r="B394" s="7"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -8518,7 +8489,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="22"/>
+      <c r="B395" s="20"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -8538,7 +8509,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="20"/>
+      <c r="B397" s="22"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -8578,7 +8549,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="7"/>
+      <c r="B401" s="20"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -8588,7 +8559,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="20"/>
+      <c r="B402" s="7"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -8608,7 +8579,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="22"/>
+      <c r="B404" s="20"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -8618,7 +8589,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="7"/>
+      <c r="B405" s="22"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -8628,7 +8599,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="6"/>
+      <c r="B406" s="7"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -8638,7 +8609,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="7"/>
+      <c r="B407" s="6"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -8658,7 +8629,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="6"/>
+      <c r="B409" s="7"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -8668,7 +8639,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="6"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -8678,7 +8649,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="20"/>
+      <c r="B411" s="7"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -8698,7 +8669,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
+      <c r="B413" s="20"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -8708,7 +8679,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="6"/>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -8718,7 +8689,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="6"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -8768,7 +8739,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="6"/>
+      <c r="B420" s="7"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -8778,7 +8749,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
+      <c r="B421" s="6"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -8838,7 +8809,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="7"/>
-      <c r="B427" s="6"/>
+      <c r="B427" s="7"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -8848,7 +8819,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="7"/>
+      <c r="B428" s="6"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -8868,7 +8839,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="6"/>
+      <c r="B430" s="7"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -8878,7 +8849,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="4"/>
+      <c r="B431" s="6"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -8898,7 +8869,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="7"/>
+      <c r="B433" s="4"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -8928,7 +8899,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="6"/>
+      <c r="B436" s="7"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -8938,8 +8909,8 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="7"/>
-      <c r="C437" s="4"/>
+      <c r="B437" s="6"/>
+      <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
       <c r="F437" s="7"/>
@@ -8989,7 +8960,7 @@
     <row r="442" spans="1:8">
       <c r="A442" s="7"/>
       <c r="B442" s="7"/>
-      <c r="C442" s="7"/>
+      <c r="C442" s="4"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
       <c r="F442" s="7"/>
@@ -8998,7 +8969,7 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
-      <c r="B443" s="6"/>
+      <c r="B443" s="7"/>
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -9008,8 +8979,8 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="7"/>
-      <c r="C444" s="4"/>
+      <c r="B444" s="6"/>
+      <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
       <c r="F444" s="7"/>
@@ -9049,7 +9020,7 @@
     <row r="448" spans="1:8">
       <c r="A448" s="7"/>
       <c r="B448" s="7"/>
-      <c r="C448" s="7"/>
+      <c r="C448" s="4"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
       <c r="F448" s="7"/>
@@ -9058,7 +9029,7 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
-      <c r="B449" s="6"/>
+      <c r="B449" s="7"/>
       <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
@@ -9068,7 +9039,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="22"/>
+      <c r="B450" s="6"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -9128,7 +9099,7 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="7"/>
-      <c r="B456" s="7"/>
+      <c r="B456" s="22"/>
       <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
@@ -9138,7 +9109,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="6"/>
+      <c r="B457" s="7"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -9148,7 +9119,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="22"/>
+      <c r="B458" s="6"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -9177,8 +9148,8 @@
       <c r="H460" s="7"/>
     </row>
     <row r="461" spans="1:8">
-      <c r="A461" s="6"/>
-      <c r="B461" s="7"/>
+      <c r="A461" s="7"/>
+      <c r="B461" s="22"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -9187,7 +9158,7 @@
       <c r="H461" s="7"/>
     </row>
     <row r="462" spans="1:8">
-      <c r="A462" s="7"/>
+      <c r="A462" s="6"/>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
@@ -9228,7 +9199,7 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="7"/>
-      <c r="B466" s="28"/>
+      <c r="B466" s="7"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
@@ -9258,7 +9229,7 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="7"/>
-      <c r="B469" s="7"/>
+      <c r="B469" s="28"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -9268,7 +9239,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="28"/>
+      <c r="B470" s="7"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -9278,7 +9249,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="7"/>
+      <c r="B471" s="28"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -9288,21 +9259,21 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="29"/>
-      <c r="C472" s="30"/>
+      <c r="B472" s="7"/>
+      <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
-      <c r="F472" s="29"/>
+      <c r="F472" s="7"/>
       <c r="G472" s="30"/>
       <c r="H472" s="7"/>
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="7"/>
-      <c r="C473" s="7"/>
+      <c r="B473" s="29"/>
+      <c r="C473" s="30"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
-      <c r="F473" s="7"/>
+      <c r="F473" s="29"/>
       <c r="G473" s="30"/>
       <c r="H473" s="7"/>
     </row>
@@ -13206,6 +13177,16 @@
       <c r="G863" s="30"/>
       <c r="H863" s="7"/>
     </row>
+    <row r="864" spans="1:8">
+      <c r="A864" s="7"/>
+      <c r="B864" s="7"/>
+      <c r="C864" s="7"/>
+      <c r="D864" s="7"/>
+      <c r="E864" s="7"/>
+      <c r="F864" s="7"/>
+      <c r="G864" s="30"/>
+      <c r="H864" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
